--- a/Dow 30/Home Depot/Home Depot.xlsx
+++ b/Dow 30/Home Depot/Home Depot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shashwat Sharma\Documents\Dow Valuation\Dow 30\Home Depot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72868C2-EF09-404A-8F72-4D23E9BF7877}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93668CD3-43F5-4ADA-A470-3B75860CC50B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{6B53D2EA-E1DC-4D29-B33F-5E60855FC21C}"/>
   </bookViews>
@@ -184,8 +184,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\(#,##0\)_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\(#,##0\)_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -327,7 +327,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -335,6 +335,33 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -344,33 +371,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -693,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EB32EE7-D7EC-4067-9579-F667DE373D78}">
   <dimension ref="B2:N58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,7 +707,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1"/>
@@ -714,25 +716,25 @@
       <c r="J2" s="2"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="7" t="s">
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E4" s="2"/>
@@ -793,962 +795,1022 @@
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="22">
         <v>100904</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="23">
         <v>108203</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="23">
         <v>110225</v>
       </c>
-      <c r="H6" s="26">
+      <c r="H6" s="23">
         <v>132110</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I6" s="23">
         <v>151157</v>
       </c>
-      <c r="J6" s="27"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="28">
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="25">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="26">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="G7" s="29">
+      <c r="G7" s="26">
         <v>1.9E-2</v>
       </c>
-      <c r="H7" s="29">
+      <c r="H7" s="26">
         <v>0.19900000000000001</v>
       </c>
-      <c r="I7" s="29">
+      <c r="I7" s="26">
         <v>0.14399999999999999</v>
       </c>
-      <c r="J7" s="30"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="25">
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="22">
         <v>159120</v>
       </c>
-      <c r="K8" s="34">
+      <c r="K8" s="31">
         <v>165647</v>
       </c>
-      <c r="L8" s="34">
+      <c r="L8" s="31">
         <v>170100</v>
       </c>
-      <c r="M8" s="34">
+      <c r="M8" s="31">
         <v>177371</v>
       </c>
-      <c r="N8" s="34">
+      <c r="N8" s="31">
         <v>184241</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="27">
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="24">
         <v>156476</v>
       </c>
-      <c r="K9" s="34">
+      <c r="K9" s="31">
         <v>160320</v>
       </c>
-      <c r="L9" s="34">
+      <c r="L9" s="31">
         <v>166137</v>
       </c>
-      <c r="M9" s="34">
+      <c r="M9" s="31">
         <v>170619</v>
       </c>
-      <c r="N9" s="34">
+      <c r="N9" s="31">
         <v>175690</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="30">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="27">
         <v>155313</v>
       </c>
-      <c r="K10" s="31">
+      <c r="K10" s="28">
         <v>155384</v>
       </c>
-      <c r="L10" s="31">
+      <c r="L10" s="28">
         <v>163508</v>
       </c>
-      <c r="M10" s="31">
+      <c r="M10" s="28">
         <v>169432</v>
       </c>
-      <c r="N10" s="31">
+      <c r="N10" s="28">
         <v>174869</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E11" s="27"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="25">
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="22">
         <v>-66548</v>
       </c>
-      <c r="F12" s="35">
+      <c r="F12" s="32">
         <v>-71043</v>
       </c>
-      <c r="G12" s="35">
+      <c r="G12" s="32">
         <v>-72653</v>
       </c>
-      <c r="H12" s="35">
+      <c r="H12" s="32">
         <v>-87257</v>
       </c>
-      <c r="I12" s="35">
+      <c r="I12" s="32">
         <v>-100325</v>
       </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="24">
         <v>34356</v>
       </c>
-      <c r="F13" s="36">
+      <c r="F13" s="33">
         <v>37160</v>
       </c>
-      <c r="G13" s="36">
+      <c r="G13" s="33">
         <v>37572</v>
       </c>
-      <c r="H13" s="36">
+      <c r="H13" s="33">
         <v>44853</v>
       </c>
-      <c r="I13" s="36">
+      <c r="I13" s="33">
         <v>50832</v>
       </c>
-      <c r="J13" s="27"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="28">
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="25">
         <v>0.34</v>
       </c>
-      <c r="F14" s="29">
+      <c r="F14" s="26">
         <v>0.34300000000000003</v>
       </c>
-      <c r="G14" s="29">
+      <c r="G14" s="26">
         <v>0.34100000000000003</v>
       </c>
-      <c r="H14" s="29">
+      <c r="H14" s="26">
         <v>0.34</v>
       </c>
-      <c r="I14" s="29">
+      <c r="I14" s="26">
         <v>0.33600000000000002</v>
       </c>
-      <c r="J14" s="30"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E15" s="27"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="23"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="25">
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="22">
         <v>0</v>
       </c>
-      <c r="F16" s="35">
+      <c r="F16" s="32">
         <v>0</v>
       </c>
-      <c r="G16" s="35">
+      <c r="G16" s="32">
         <v>0</v>
       </c>
-      <c r="H16" s="35">
+      <c r="H16" s="32">
         <v>0</v>
       </c>
-      <c r="I16" s="35">
+      <c r="I16" s="32">
         <v>0</v>
       </c>
-      <c r="J16" s="25"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="32"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="32"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>11</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E17" s="24">
         <v>-797</v>
       </c>
-      <c r="F17" s="36">
+      <c r="F17" s="33">
         <v>-921</v>
       </c>
-      <c r="G17" s="36">
+      <c r="G17" s="33">
         <v>-904</v>
       </c>
-      <c r="H17" s="36">
+      <c r="H17" s="33">
         <v>-909</v>
       </c>
-      <c r="I17" s="36">
+      <c r="I17" s="33">
         <v>-1044</v>
       </c>
-      <c r="J17" s="27"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="23"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E18" s="24">
         <v>0</v>
       </c>
-      <c r="F18" s="36">
+      <c r="F18" s="33">
         <v>0</v>
       </c>
-      <c r="G18" s="36">
+      <c r="G18" s="33">
         <v>0</v>
       </c>
-      <c r="H18" s="36">
+      <c r="H18" s="33">
         <v>0</v>
       </c>
-      <c r="I18" s="36">
+      <c r="I18" s="33">
         <v>0</v>
       </c>
-      <c r="J18" s="27"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="27">
+      <c r="E19" s="24">
         <v>-18878</v>
       </c>
-      <c r="F19" s="36">
+      <c r="F19" s="33">
         <v>-20725</v>
       </c>
-      <c r="G19" s="36">
+      <c r="G19" s="33">
         <v>-20825</v>
       </c>
-      <c r="H19" s="36">
+      <c r="H19" s="33">
         <v>-25666</v>
       </c>
-      <c r="I19" s="36">
+      <c r="I19" s="33">
         <v>-26748</v>
       </c>
-      <c r="J19" s="27"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="27">
+      <c r="E20" s="24">
         <v>-19675</v>
       </c>
-      <c r="F20" s="36">
+      <c r="F20" s="33">
         <v>-21646</v>
       </c>
-      <c r="G20" s="36">
+      <c r="G20" s="33">
         <v>-21729</v>
       </c>
-      <c r="H20" s="36">
+      <c r="H20" s="33">
         <v>-26575</v>
       </c>
-      <c r="I20" s="36">
+      <c r="I20" s="33">
         <v>-27792</v>
       </c>
-      <c r="J20" s="27"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="23"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="30">
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="27">
         <v>14681</v>
       </c>
-      <c r="F21" s="31">
+      <c r="F21" s="28">
         <v>15514</v>
       </c>
-      <c r="G21" s="31">
+      <c r="G21" s="28">
         <v>15843</v>
       </c>
-      <c r="H21" s="31">
+      <c r="H21" s="28">
         <v>18278</v>
       </c>
-      <c r="I21" s="31">
+      <c r="I21" s="28">
         <v>23040</v>
       </c>
-      <c r="J21" s="30"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E22" s="27"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="27"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="25">
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="22">
         <v>-983</v>
       </c>
-      <c r="F23" s="35">
+      <c r="F23" s="32">
         <v>-958</v>
       </c>
-      <c r="G23" s="35">
+      <c r="G23" s="32">
         <v>-1128</v>
       </c>
-      <c r="H23" s="35">
+      <c r="H23" s="32">
         <v>-1300</v>
       </c>
-      <c r="I23" s="35">
+      <c r="I23" s="32">
         <v>-1303</v>
       </c>
-      <c r="J23" s="25"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="32"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="18"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
+      <c r="E24" s="24">
+        <v>13698</v>
+      </c>
+      <c r="F24" s="23">
+        <v>14556</v>
+      </c>
+      <c r="G24" s="23">
+        <v>14715</v>
+      </c>
+      <c r="H24" s="23">
+        <v>16978</v>
+      </c>
+      <c r="I24" s="23">
+        <v>21737</v>
+      </c>
+      <c r="J24" s="15"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="18"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
+      <c r="E25" s="24">
+        <v>-5068</v>
+      </c>
+      <c r="F25" s="23">
+        <v>-3435</v>
+      </c>
+      <c r="G25" s="23">
+        <v>-3473</v>
+      </c>
+      <c r="H25" s="23">
+        <v>-4112</v>
+      </c>
+      <c r="I25" s="23">
+        <v>-5304</v>
+      </c>
+      <c r="J25" s="15"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="27">
+        <v>8630</v>
+      </c>
+      <c r="F26" s="28">
+        <v>11121</v>
+      </c>
+      <c r="G26" s="28">
+        <v>11242</v>
+      </c>
+      <c r="H26" s="28">
+        <v>12866</v>
+      </c>
+      <c r="I26" s="28">
+        <v>16433</v>
+      </c>
+      <c r="J26" s="16"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E27" s="18"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="15"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="37">
+        <v>8630</v>
+      </c>
+      <c r="F28" s="38">
+        <v>11121</v>
+      </c>
+      <c r="G28" s="38">
+        <v>11242</v>
+      </c>
+      <c r="H28" s="38">
+        <v>12866</v>
+      </c>
+      <c r="I28" s="38">
+        <v>16433</v>
+      </c>
+      <c r="J28" s="19"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E29" s="18"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="22">
+        <v>16743</v>
+      </c>
+      <c r="F30" s="32">
+        <v>17929</v>
+      </c>
+      <c r="G30" s="32">
+        <v>18139</v>
+      </c>
+      <c r="H30" s="32">
+        <v>23007</v>
+      </c>
+      <c r="I30" s="32">
+        <v>26164</v>
+      </c>
+      <c r="J30" s="13"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="27">
+        <v>14681</v>
+      </c>
+      <c r="F31" s="28">
+        <v>15777</v>
+      </c>
+      <c r="G31" s="28">
+        <v>15843</v>
+      </c>
+      <c r="H31" s="28">
+        <v>20488</v>
+      </c>
+      <c r="I31" s="28">
+        <v>23302</v>
+      </c>
+      <c r="J31" s="16"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E32" s="22"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E34" s="18"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="15"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E35" s="18"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="17"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E36" s="18"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E37" s="18"/>
-      <c r="F37" s="17"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E38" s="18"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="17"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="15"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E39" s="18"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="17"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="15"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="20"/>
-      <c r="N40" s="20"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E41" s="18"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="17"/>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="15"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
-      <c r="J42" s="16"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="21"/>
-      <c r="M42" s="21"/>
-      <c r="N42" s="21"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="18"/>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="18"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="18"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="15"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="14"/>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="18"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="17"/>
-      <c r="L44" s="17"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="14"/>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="19"/>
-      <c r="K45" s="20"/>
-      <c r="L45" s="20"/>
-      <c r="M45" s="20"/>
-      <c r="N45" s="20"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E46" s="18"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="18"/>
-      <c r="K46" s="17"/>
-      <c r="L46" s="17"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="14"/>
     </row>
     <row r="47" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="16"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="21"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="21"/>
-      <c r="J47" s="16"/>
-      <c r="K47" s="21"/>
-      <c r="L47" s="21"/>
-      <c r="M47" s="21"/>
-      <c r="N47" s="21"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="18"/>
+      <c r="L47" s="18"/>
+      <c r="M47" s="18"/>
+      <c r="N47" s="18"/>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>35</v>
       </c>
-      <c r="E48" s="18"/>
-      <c r="F48" s="17"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="18"/>
-      <c r="K48" s="17"/>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="14"/>
+      <c r="N48" s="14"/>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>36</v>
       </c>
-      <c r="E49" s="18"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="18"/>
-      <c r="K49" s="17"/>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="14"/>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>37</v>
       </c>
-      <c r="E50" s="18"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="17"/>
-      <c r="L50" s="17"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="15"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="14"/>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>38</v>
       </c>
-      <c r="E51" s="18"/>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="18"/>
-      <c r="K51" s="17"/>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="15"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="14"/>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="19"/>
-      <c r="K52" s="20"/>
-      <c r="L52" s="20"/>
-      <c r="M52" s="20"/>
-      <c r="N52" s="20"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="17"/>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E53" s="18"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="17"/>
-      <c r="J53" s="18"/>
-      <c r="K53" s="17"/>
-      <c r="L53" s="17"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="17"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="15"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="14"/>
+      <c r="N53" s="14"/>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="21"/>
-      <c r="H54" s="21"/>
-      <c r="I54" s="21"/>
-      <c r="J54" s="16"/>
-      <c r="K54" s="21"/>
-      <c r="L54" s="21"/>
-      <c r="M54" s="21"/>
-      <c r="N54" s="21"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="18"/>
+      <c r="L54" s="18"/>
+      <c r="M54" s="18"/>
+      <c r="N54" s="18"/>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="20"/>
-      <c r="J55" s="19"/>
-      <c r="K55" s="20"/>
-      <c r="L55" s="20"/>
-      <c r="M55" s="20"/>
-      <c r="N55" s="20"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="17"/>
+      <c r="L55" s="17"/>
+      <c r="M55" s="17"/>
+      <c r="N55" s="17"/>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E56" s="18"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="17"/>
-      <c r="J56" s="18"/>
-      <c r="K56" s="17"/>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="17"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="15"/>
+      <c r="K56" s="14"/>
+      <c r="L56" s="14"/>
+      <c r="M56" s="14"/>
+      <c r="N56" s="14"/>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="16"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="21"/>
-      <c r="H57" s="21"/>
-      <c r="I57" s="21"/>
-      <c r="J57" s="16"/>
-      <c r="K57" s="21"/>
-      <c r="L57" s="21"/>
-      <c r="M57" s="21"/>
-      <c r="N57" s="21"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="18"/>
+      <c r="J57" s="13"/>
+      <c r="K57" s="18"/>
+      <c r="L57" s="18"/>
+      <c r="M57" s="18"/>
+      <c r="N57" s="18"/>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B58" s="11" t="s">
+      <c r="B58" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="20"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="20"/>
-      <c r="J58" s="19"/>
-      <c r="K58" s="20"/>
-      <c r="L58" s="20"/>
-      <c r="M58" s="20"/>
-      <c r="N58" s="20"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="17"/>
+      <c r="L58" s="17"/>
+      <c r="M58" s="17"/>
+      <c r="N58" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Dow 30/Home Depot/Home Depot.xlsx
+++ b/Dow 30/Home Depot/Home Depot.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shashwat Sharma\Documents\Dow Valuation\Dow 30\Home Depot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93668CD3-43F5-4ADA-A470-3B75860CC50B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC38314-C355-422C-A00A-9FFD3A04FCD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{6B53D2EA-E1DC-4D29-B33F-5E60855FC21C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="2" xr2:uid="{6B53D2EA-E1DC-4D29-B33F-5E60855FC21C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Historical Data and Projections" sheetId="1" r:id="rId1"/>
+    <sheet name="Street Estimates" sheetId="2" r:id="rId2"/>
+    <sheet name="DCF Model" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="94">
   <si>
     <t>Projected</t>
   </si>
@@ -177,6 +179,147 @@
   </si>
   <si>
     <t xml:space="preserve">  Low Consensus</t>
+  </si>
+  <si>
+    <t>Current Price:</t>
+  </si>
+  <si>
+    <t>EBIT:</t>
+  </si>
+  <si>
+    <t>High Consensus</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>Conservative</t>
+  </si>
+  <si>
+    <t>Tax:</t>
+  </si>
+  <si>
+    <t>D&amp;A:</t>
+  </si>
+  <si>
+    <t>CapEx:</t>
+  </si>
+  <si>
+    <t>NWC:</t>
+  </si>
+  <si>
+    <t>CapEx</t>
+  </si>
+  <si>
+    <t>Conseravtive</t>
+  </si>
+  <si>
+    <t>g (%)</t>
+  </si>
+  <si>
+    <t>Discounted Cash Flow Model</t>
+  </si>
+  <si>
+    <t>Assumptions:</t>
+  </si>
+  <si>
+    <t>EV / EBITDA</t>
+  </si>
+  <si>
+    <t>Cost of Debt</t>
+  </si>
+  <si>
+    <t>Tax Rate</t>
+  </si>
+  <si>
+    <t>Growth Rate</t>
+  </si>
+  <si>
+    <t>Risk Free Rate</t>
+  </si>
+  <si>
+    <t>Beta</t>
+  </si>
+  <si>
+    <t>Market Return</t>
+  </si>
+  <si>
+    <t>Equity Value</t>
+  </si>
+  <si>
+    <t>Debt Value</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>D&amp;A</t>
+  </si>
+  <si>
+    <t>Tax</t>
+  </si>
+  <si>
+    <t>NWC</t>
+  </si>
+  <si>
+    <t>FCF</t>
+  </si>
+  <si>
+    <t>WACC:</t>
+  </si>
+  <si>
+    <t>Cost of Equity</t>
+  </si>
+  <si>
+    <t>D/D+E</t>
+  </si>
+  <si>
+    <t>E/D+E</t>
+  </si>
+  <si>
+    <t>Terminal Value</t>
+  </si>
+  <si>
+    <t>WACC</t>
+  </si>
+  <si>
+    <t>Perpetuity Growth</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Discounting</t>
+  </si>
+  <si>
+    <t>Discount Factor</t>
+  </si>
+  <si>
+    <t>PV of FCF</t>
+  </si>
+  <si>
+    <t>PV of TV</t>
+  </si>
+  <si>
+    <t>Enterprise Value</t>
+  </si>
+  <si>
+    <t>Enterprise Value to Equity Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Marketable Securities</t>
+  </si>
+  <si>
+    <t>Short-term Debt</t>
+  </si>
+  <si>
+    <t>Long-term Debt</t>
+  </si>
+  <si>
+    <t>Shares Outstanding</t>
   </si>
 </sst>
 </file>
@@ -232,7 +375,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -322,12 +465,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -362,6 +568,8 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -371,8 +579,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,6 +636,1183 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Home Depot Revenue</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Forecast</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="28575" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="28575" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="28575" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="28575" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:marker>
+              <c:symbol val="none"/>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="28575" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>('Historical Data and Projections'!$E$5:$N$5,'Historical Data and Projections'!$E$5:$N$5)</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('Historical Data and Projections'!$E$5:$N$5,'Historical Data and Projections'!$J$5:$N$5)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2026</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>('Historical Data and Projections'!$E$6:$I$6,'Historical Data and Projections'!$E$6:$I$6,'Historical Data and Projections'!$J$9:$N$9)</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('Historical Data and Projections'!$E$6:$I$6,'Historical Data and Projections'!$E$6:$I$6)</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0_-;\(#,##0\)_-;_-* "-"_-;_-@_-</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100904</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>108203</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>110225</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>132110</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>151157</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100904</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>108203</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>110225</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>132110</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>151157</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-233B-45D8-9FE1-2877D79C5746}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="969982735"/>
+        <c:axId val="969984815"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="969982735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Year</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="969984815"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="969984815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Millions</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of ($)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="_-* #,##0_-;\(#,##0\)_-;_-* &quot;-&quot;_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="969982735"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>466724</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A74D7438-5AB2-A233-CC27-7821C388E5E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -695,8 +2114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EB32EE7-D7EC-4067-9579-F667DE373D78}">
   <dimension ref="B2:N58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,20 +2140,20 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="34" t="s">
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E4" s="2"/>
@@ -1315,19 +2734,19 @@
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="37">
+      <c r="E28" s="34">
         <v>8630</v>
       </c>
-      <c r="F28" s="38">
+      <c r="F28" s="35">
         <v>11121</v>
       </c>
-      <c r="G28" s="38">
+      <c r="G28" s="35">
         <v>11242</v>
       </c>
-      <c r="H28" s="38">
+      <c r="H28" s="35">
         <v>12866</v>
       </c>
-      <c r="I28" s="38">
+      <c r="I28" s="35">
         <v>16433</v>
       </c>
       <c r="J28" s="19"/>
@@ -1420,11 +2839,26 @@
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
+      <c r="E33" s="22">
+        <f>E28</f>
+        <v>8630</v>
+      </c>
+      <c r="F33" s="32">
+        <f>F28</f>
+        <v>11121</v>
+      </c>
+      <c r="G33" s="32">
+        <f t="shared" ref="G33:I33" si="0">G28</f>
+        <v>11242</v>
+      </c>
+      <c r="H33" s="32">
+        <f t="shared" si="0"/>
+        <v>12866</v>
+      </c>
+      <c r="I33" s="32">
+        <f t="shared" si="0"/>
+        <v>16433</v>
+      </c>
       <c r="J33" s="13"/>
       <c r="K33" s="18"/>
       <c r="L33" s="18"/>
@@ -1435,11 +2869,21 @@
       <c r="B34" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E34" s="15"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
+      <c r="E34" s="24">
+        <v>2062</v>
+      </c>
+      <c r="F34" s="23">
+        <v>2152</v>
+      </c>
+      <c r="G34" s="23">
+        <v>2296</v>
+      </c>
+      <c r="H34" s="23">
+        <v>2519</v>
+      </c>
+      <c r="I34" s="23">
+        <v>2862</v>
+      </c>
       <c r="J34" s="15"/>
       <c r="K34" s="14"/>
       <c r="L34" s="14"/>
@@ -1450,11 +2894,21 @@
       <c r="B35" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E35" s="15"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
+      <c r="E35" s="24">
+        <v>273</v>
+      </c>
+      <c r="F35" s="23">
+        <v>282</v>
+      </c>
+      <c r="G35" s="23">
+        <v>251</v>
+      </c>
+      <c r="H35" s="23">
+        <v>310</v>
+      </c>
+      <c r="I35" s="23">
+        <v>399</v>
+      </c>
       <c r="J35" s="15"/>
       <c r="K35" s="14"/>
       <c r="L35" s="14"/>
@@ -1465,11 +2919,21 @@
       <c r="B36" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E36" s="15"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
+      <c r="E36" s="24">
+        <v>139</v>
+      </c>
+      <c r="F36" s="23">
+        <v>33</v>
+      </c>
+      <c r="G36" s="23">
+        <v>-170</v>
+      </c>
+      <c r="H36" s="23">
+        <v>-465</v>
+      </c>
+      <c r="I36" s="23">
+        <v>-435</v>
+      </c>
       <c r="J36" s="15"/>
       <c r="K36" s="14"/>
       <c r="L36" s="14"/>
@@ -1480,11 +2944,21 @@
       <c r="B37" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E37" s="15"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
+      <c r="E37" s="24">
+        <v>-84</v>
+      </c>
+      <c r="F37" s="23">
+        <v>-1244</v>
+      </c>
+      <c r="G37" s="23">
+        <v>-593</v>
+      </c>
+      <c r="H37" s="23">
+        <v>-1657</v>
+      </c>
+      <c r="I37" s="23">
+        <v>-5403</v>
+      </c>
       <c r="J37" s="15"/>
       <c r="K37" s="14"/>
       <c r="L37" s="14"/>
@@ -1495,11 +2969,21 @@
       <c r="B38" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E38" s="15"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
+      <c r="E38" s="24">
+        <v>-10</v>
+      </c>
+      <c r="F38" s="23">
+        <v>-257</v>
+      </c>
+      <c r="G38" s="23">
+        <v>-135</v>
+      </c>
+      <c r="H38" s="23">
+        <v>43</v>
+      </c>
+      <c r="I38" s="23">
+        <v>-330</v>
+      </c>
       <c r="J38" s="15"/>
       <c r="K38" s="14"/>
       <c r="L38" s="14"/>
@@ -1510,11 +2994,21 @@
       <c r="B39" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E39" s="15"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
+      <c r="E39" s="24">
+        <v>1021</v>
+      </c>
+      <c r="F39" s="23">
+        <v>1078</v>
+      </c>
+      <c r="G39" s="23">
+        <v>796</v>
+      </c>
+      <c r="H39" s="23">
+        <v>5223</v>
+      </c>
+      <c r="I39" s="23">
+        <v>3045</v>
+      </c>
       <c r="J39" s="15"/>
       <c r="K39" s="14"/>
       <c r="L39" s="14"/>
@@ -1527,11 +3021,21 @@
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
+      <c r="E40" s="27">
+        <v>12031</v>
+      </c>
+      <c r="F40" s="28">
+        <v>13165</v>
+      </c>
+      <c r="G40" s="28">
+        <v>13687</v>
+      </c>
+      <c r="H40" s="28">
+        <v>18839</v>
+      </c>
+      <c r="I40" s="28">
+        <v>16571</v>
+      </c>
       <c r="J40" s="16"/>
       <c r="K40" s="17"/>
       <c r="L40" s="17"/>
@@ -1539,11 +3043,11 @@
       <c r="N40" s="17"/>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E41" s="15"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
       <c r="J41" s="15"/>
       <c r="K41" s="14"/>
       <c r="L41" s="14"/>
@@ -1556,11 +3060,21 @@
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
-      <c r="E42" s="13"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
+      <c r="E42" s="22">
+        <v>-1897</v>
+      </c>
+      <c r="F42" s="32">
+        <v>-2442</v>
+      </c>
+      <c r="G42" s="32">
+        <v>-2678</v>
+      </c>
+      <c r="H42" s="32">
+        <v>-2463</v>
+      </c>
+      <c r="I42" s="32">
+        <v>-2566</v>
+      </c>
       <c r="J42" s="13"/>
       <c r="K42" s="18"/>
       <c r="L42" s="18"/>
@@ -1571,11 +3085,21 @@
       <c r="B43" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="15"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
+      <c r="E43" s="24">
+        <v>-374</v>
+      </c>
+      <c r="F43" s="23">
+        <v>-21</v>
+      </c>
+      <c r="G43" s="23">
+        <v>0</v>
+      </c>
+      <c r="H43" s="23">
+        <v>-7780</v>
+      </c>
+      <c r="I43" s="23">
+        <v>-421</v>
+      </c>
       <c r="J43" s="15"/>
       <c r="K43" s="14"/>
       <c r="L43" s="14"/>
@@ -1586,11 +3110,21 @@
       <c r="B44" t="s">
         <v>32</v>
       </c>
-      <c r="E44" s="15"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
+      <c r="E44" s="24">
+        <v>43</v>
+      </c>
+      <c r="F44" s="23">
+        <v>47</v>
+      </c>
+      <c r="G44" s="23">
+        <v>25</v>
+      </c>
+      <c r="H44" s="23">
+        <v>73</v>
+      </c>
+      <c r="I44" s="23">
+        <v>18</v>
+      </c>
       <c r="J44" s="15"/>
       <c r="K44" s="14"/>
       <c r="L44" s="14"/>
@@ -1603,11 +3137,21 @@
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
-      <c r="E45" s="16"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
+      <c r="E45" s="27">
+        <v>-2228</v>
+      </c>
+      <c r="F45" s="28">
+        <v>-2416</v>
+      </c>
+      <c r="G45" s="28">
+        <v>-2653</v>
+      </c>
+      <c r="H45" s="28">
+        <v>-10170</v>
+      </c>
+      <c r="I45" s="28">
+        <v>-2969</v>
+      </c>
       <c r="J45" s="16"/>
       <c r="K45" s="17"/>
       <c r="L45" s="17"/>
@@ -1615,11 +3159,11 @@
       <c r="N45" s="17"/>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E46" s="15"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="23"/>
       <c r="J46" s="15"/>
       <c r="K46" s="14"/>
       <c r="L46" s="14"/>
@@ -1632,11 +3176,21 @@
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="18"/>
+      <c r="E47" s="22">
+        <v>-4212</v>
+      </c>
+      <c r="F47" s="32">
+        <v>-4704</v>
+      </c>
+      <c r="G47" s="32">
+        <v>-5958</v>
+      </c>
+      <c r="H47" s="32">
+        <v>-6451</v>
+      </c>
+      <c r="I47" s="32">
+        <v>-6985</v>
+      </c>
       <c r="J47" s="13"/>
       <c r="K47" s="18"/>
       <c r="L47" s="18"/>
@@ -1647,11 +3201,21 @@
       <c r="B48" t="s">
         <v>35</v>
       </c>
-      <c r="E48" s="15"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
+      <c r="E48" s="24">
+        <v>2991</v>
+      </c>
+      <c r="F48" s="23">
+        <v>3466</v>
+      </c>
+      <c r="G48" s="23">
+        <v>3420</v>
+      </c>
+      <c r="H48" s="23">
+        <v>7933</v>
+      </c>
+      <c r="I48" s="23">
+        <v>2979</v>
+      </c>
       <c r="J48" s="15"/>
       <c r="K48" s="14"/>
       <c r="L48" s="14"/>
@@ -1662,11 +3226,21 @@
       <c r="B49" t="s">
         <v>36</v>
       </c>
-      <c r="E49" s="15"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
+      <c r="E49" s="24">
+        <v>-543</v>
+      </c>
+      <c r="F49" s="23">
+        <v>-1209</v>
+      </c>
+      <c r="G49" s="23">
+        <v>-1070</v>
+      </c>
+      <c r="H49" s="23">
+        <v>-2872</v>
+      </c>
+      <c r="I49" s="23">
+        <v>-1532</v>
+      </c>
       <c r="J49" s="15"/>
       <c r="K49" s="14"/>
       <c r="L49" s="14"/>
@@ -1677,11 +3251,21 @@
       <c r="B50" t="s">
         <v>37</v>
       </c>
-      <c r="E50" s="15"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
+      <c r="E50" s="24">
+        <v>-8000</v>
+      </c>
+      <c r="F50" s="23">
+        <v>-9963</v>
+      </c>
+      <c r="G50" s="23">
+        <v>-6965</v>
+      </c>
+      <c r="H50" s="23">
+        <v>-791</v>
+      </c>
+      <c r="I50" s="23">
+        <v>-14809</v>
+      </c>
       <c r="J50" s="15"/>
       <c r="K50" s="14"/>
       <c r="L50" s="14"/>
@@ -1692,11 +3276,21 @@
       <c r="B51" t="s">
         <v>38</v>
       </c>
-      <c r="E51" s="15"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
+      <c r="E51" s="24">
+        <v>894</v>
+      </c>
+      <c r="F51" s="23">
+        <v>-137</v>
+      </c>
+      <c r="G51" s="23">
+        <v>-225</v>
+      </c>
+      <c r="H51" s="23">
+        <v>-802</v>
+      </c>
+      <c r="I51" s="23">
+        <v>1227</v>
+      </c>
       <c r="J51" s="15"/>
       <c r="K51" s="14"/>
       <c r="L51" s="14"/>
@@ -1709,11 +3303,21 @@
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="17"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="17"/>
+      <c r="E52" s="27">
+        <v>-8870</v>
+      </c>
+      <c r="F52" s="28">
+        <v>-12547</v>
+      </c>
+      <c r="G52" s="28">
+        <v>-10798</v>
+      </c>
+      <c r="H52" s="28">
+        <v>-2983</v>
+      </c>
+      <c r="I52" s="28">
+        <v>-19120</v>
+      </c>
       <c r="J52" s="16"/>
       <c r="K52" s="17"/>
       <c r="L52" s="17"/>
@@ -1721,11 +3325,11 @@
       <c r="N52" s="17"/>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E53" s="15"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="23"/>
       <c r="J53" s="15"/>
       <c r="K53" s="14"/>
       <c r="L53" s="14"/>
@@ -1738,11 +3342,21 @@
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="18"/>
-      <c r="I54" s="18"/>
+      <c r="E54" s="22">
+        <v>2538</v>
+      </c>
+      <c r="F54" s="32">
+        <v>3595</v>
+      </c>
+      <c r="G54" s="32">
+        <v>1778</v>
+      </c>
+      <c r="H54" s="32">
+        <v>2133</v>
+      </c>
+      <c r="I54" s="32">
+        <v>7895</v>
+      </c>
       <c r="J54" s="13"/>
       <c r="K54" s="18"/>
       <c r="L54" s="18"/>
@@ -1755,11 +3369,21 @@
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="17"/>
+      <c r="E55" s="27">
+        <v>3595</v>
+      </c>
+      <c r="F55" s="28">
+        <v>1778</v>
+      </c>
+      <c r="G55" s="28">
+        <v>2133</v>
+      </c>
+      <c r="H55" s="28">
+        <v>7895</v>
+      </c>
+      <c r="I55" s="28">
+        <v>2343</v>
+      </c>
       <c r="J55" s="16"/>
       <c r="K55" s="17"/>
       <c r="L55" s="17"/>
@@ -1784,11 +3408,21 @@
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="18"/>
-      <c r="I57" s="18"/>
+      <c r="E57" s="22">
+        <v>10134</v>
+      </c>
+      <c r="F57" s="32">
+        <v>10723</v>
+      </c>
+      <c r="G57" s="32">
+        <v>11009</v>
+      </c>
+      <c r="H57" s="32">
+        <v>16376</v>
+      </c>
+      <c r="I57" s="32">
+        <v>14005</v>
+      </c>
       <c r="J57" s="13"/>
       <c r="K57" s="18"/>
       <c r="L57" s="18"/>
@@ -1801,11 +3435,21 @@
       </c>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="17"/>
+      <c r="E58" s="27">
+        <v>9931</v>
+      </c>
+      <c r="F58" s="28">
+        <v>1035</v>
+      </c>
+      <c r="G58" s="28">
+        <v>1112</v>
+      </c>
+      <c r="H58" s="28">
+        <v>1241</v>
+      </c>
+      <c r="I58" s="28">
+        <v>1269</v>
+      </c>
       <c r="J58" s="16"/>
       <c r="K58" s="17"/>
       <c r="L58" s="17"/>
@@ -1819,5 +3463,1068 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5410502-F832-423B-94ED-5243D3B99B05}">
+  <dimension ref="B1:O16"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J1" s="2"/>
+      <c r="O1" s="44"/>
+    </row>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="O2" s="44"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="44"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E4" s="2"/>
+      <c r="J4" s="5">
+        <v>1</v>
+      </c>
+      <c r="K4" s="6">
+        <v>2</v>
+      </c>
+      <c r="L4" s="6">
+        <v>3</v>
+      </c>
+      <c r="M4" s="6">
+        <v>4</v>
+      </c>
+      <c r="N4" s="6">
+        <v>5</v>
+      </c>
+      <c r="O4" s="44"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="4">
+        <v>2017</v>
+      </c>
+      <c r="F5" s="3">
+        <v>2018</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2019</v>
+      </c>
+      <c r="H5" s="3">
+        <v>2020</v>
+      </c>
+      <c r="I5" s="40">
+        <v>2021</v>
+      </c>
+      <c r="J5" s="3">
+        <v>2022</v>
+      </c>
+      <c r="K5" s="3">
+        <v>2023</v>
+      </c>
+      <c r="L5" s="3">
+        <v>2024</v>
+      </c>
+      <c r="M5" s="3">
+        <v>2025</v>
+      </c>
+      <c r="N5" s="3">
+        <v>2026</v>
+      </c>
+      <c r="O5" s="46" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="22">
+        <v>14681</v>
+      </c>
+      <c r="F6" s="23">
+        <v>15777</v>
+      </c>
+      <c r="G6" s="23">
+        <v>15843</v>
+      </c>
+      <c r="H6" s="23">
+        <v>20488</v>
+      </c>
+      <c r="I6" s="50">
+        <v>23302</v>
+      </c>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="44"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="24"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="23">
+        <v>24336</v>
+      </c>
+      <c r="K7" s="55">
+        <f>J7*1.044</f>
+        <v>25406.784</v>
+      </c>
+      <c r="L7" s="55">
+        <f>K7*1.05</f>
+        <v>26677.123200000002</v>
+      </c>
+      <c r="M7" s="55">
+        <f t="shared" ref="M7:N7" si="0">L7*1.05</f>
+        <v>28010.979360000005</v>
+      </c>
+      <c r="N7" s="55">
+        <f t="shared" si="0"/>
+        <v>29411.528328000008</v>
+      </c>
+      <c r="O7" s="53">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="24"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="23">
+        <v>24046</v>
+      </c>
+      <c r="K8" s="55">
+        <f>J8*1.044</f>
+        <v>25104.024000000001</v>
+      </c>
+      <c r="L8" s="55">
+        <f t="shared" ref="L8:N8" si="1">K8*1.044</f>
+        <v>26208.601056000003</v>
+      </c>
+      <c r="M8" s="55">
+        <f t="shared" si="1"/>
+        <v>27361.779502464004</v>
+      </c>
+      <c r="N8" s="55">
+        <f t="shared" si="1"/>
+        <v>28565.69780057242</v>
+      </c>
+      <c r="O8" s="54">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="28">
+        <v>23537</v>
+      </c>
+      <c r="K9" s="28">
+        <v>23306</v>
+      </c>
+      <c r="L9" s="56">
+        <f>1.04*K9</f>
+        <v>24238.240000000002</v>
+      </c>
+      <c r="M9" s="56">
+        <f t="shared" ref="M9:N9" si="2">1.04*L9</f>
+        <v>25207.769600000003</v>
+      </c>
+      <c r="N9" s="56">
+        <f t="shared" si="2"/>
+        <v>26216.080384000004</v>
+      </c>
+      <c r="O9" s="53">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="24">
+        <v>5068</v>
+      </c>
+      <c r="F10" s="23">
+        <v>3435</v>
+      </c>
+      <c r="G10" s="23">
+        <v>3473</v>
+      </c>
+      <c r="H10" s="23">
+        <v>4112</v>
+      </c>
+      <c r="I10" s="50">
+        <v>5304</v>
+      </c>
+      <c r="J10" s="55">
+        <f>25%*J8</f>
+        <v>6011.5</v>
+      </c>
+      <c r="K10" s="55">
+        <f>25%*K8</f>
+        <v>6276.0060000000003</v>
+      </c>
+      <c r="L10" s="55">
+        <f t="shared" ref="L10:N10" si="3">25%*L8</f>
+        <v>6552.1502640000008</v>
+      </c>
+      <c r="M10" s="55">
+        <f t="shared" si="3"/>
+        <v>6840.4448756160009</v>
+      </c>
+      <c r="N10" s="55">
+        <f t="shared" si="3"/>
+        <v>7141.4244501431049</v>
+      </c>
+      <c r="O10" s="58"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="34">
+        <v>2062</v>
+      </c>
+      <c r="F11" s="35">
+        <v>2152</v>
+      </c>
+      <c r="G11" s="35">
+        <v>2296</v>
+      </c>
+      <c r="H11" s="35">
+        <v>2519</v>
+      </c>
+      <c r="I11" s="52">
+        <v>2862</v>
+      </c>
+      <c r="J11" s="35">
+        <v>2758</v>
+      </c>
+      <c r="K11" s="35">
+        <v>2840</v>
+      </c>
+      <c r="L11" s="35">
+        <v>3284</v>
+      </c>
+      <c r="M11" s="35">
+        <v>3526</v>
+      </c>
+      <c r="N11" s="35">
+        <v>2763</v>
+      </c>
+      <c r="O11" s="58"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="24">
+        <v>1897</v>
+      </c>
+      <c r="F12" s="23">
+        <v>2442</v>
+      </c>
+      <c r="G12" s="23">
+        <v>2678</v>
+      </c>
+      <c r="H12" s="23">
+        <v>2463</v>
+      </c>
+      <c r="I12" s="50">
+        <v>2566</v>
+      </c>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="44"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="24"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="23">
+        <v>3182</v>
+      </c>
+      <c r="K13" s="55">
+        <f>J13*1.03</f>
+        <v>3277.46</v>
+      </c>
+      <c r="L13" s="55">
+        <f t="shared" ref="L13:N13" si="4">K13*1.03</f>
+        <v>3375.7838000000002</v>
+      </c>
+      <c r="M13" s="55">
+        <f t="shared" si="4"/>
+        <v>3477.0573140000001</v>
+      </c>
+      <c r="N13" s="55">
+        <f t="shared" si="4"/>
+        <v>3581.3690334200001</v>
+      </c>
+      <c r="O13" s="47">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="24"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="23">
+        <v>3100</v>
+      </c>
+      <c r="K14" s="55">
+        <f>J14*1.025</f>
+        <v>3177.4999999999995</v>
+      </c>
+      <c r="L14" s="55">
+        <f t="shared" ref="L14:N15" si="5">K14*1.025</f>
+        <v>3256.9374999999991</v>
+      </c>
+      <c r="M14" s="55">
+        <f t="shared" si="5"/>
+        <v>3338.3609374999987</v>
+      </c>
+      <c r="N14" s="55">
+        <f t="shared" si="5"/>
+        <v>3421.8199609374983</v>
+      </c>
+      <c r="O14" s="49">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="24"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="23">
+        <v>2747</v>
+      </c>
+      <c r="K15" s="55">
+        <f>J15*1.02</f>
+        <v>2801.94</v>
+      </c>
+      <c r="L15" s="55">
+        <f t="shared" ref="L15:N15" si="6">K15*1.02</f>
+        <v>2857.9788000000003</v>
+      </c>
+      <c r="M15" s="55">
+        <f t="shared" si="6"/>
+        <v>2915.1383760000003</v>
+      </c>
+      <c r="N15" s="55">
+        <f t="shared" si="6"/>
+        <v>2973.4411435200004</v>
+      </c>
+      <c r="O15" s="57">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="34">
+        <v>-1905</v>
+      </c>
+      <c r="F16" s="35">
+        <v>-2430</v>
+      </c>
+      <c r="G16" s="35">
+        <v>-2943</v>
+      </c>
+      <c r="H16" s="35">
+        <v>340</v>
+      </c>
+      <c r="I16" s="52">
+        <v>-2331</v>
+      </c>
+      <c r="J16" s="59">
+        <f>I16*1.035</f>
+        <v>-2412.585</v>
+      </c>
+      <c r="K16" s="59">
+        <f>J16*1.024</f>
+        <v>-2470.48704</v>
+      </c>
+      <c r="L16" s="59">
+        <f>K16*1.039</f>
+        <v>-2566.8360345599999</v>
+      </c>
+      <c r="M16" s="59">
+        <f>L16*1.025</f>
+        <v>-2631.0069354239995</v>
+      </c>
+      <c r="N16" s="59">
+        <f>M16*1.03</f>
+        <v>-2709.9371434867194</v>
+      </c>
+      <c r="O16" s="45"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="J3:N3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4227E2D-680B-4228-894A-47C660061E79}">
+  <dimension ref="B2:O45"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="I5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3">
+        <v>2</v>
+      </c>
+      <c r="M5" s="3">
+        <v>3</v>
+      </c>
+      <c r="N5" s="3">
+        <v>4</v>
+      </c>
+      <c r="O5" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="2">
+        <f>'Street Estimates'!I6</f>
+        <v>23302</v>
+      </c>
+      <c r="K6" s="43">
+        <f>'Street Estimates'!J8</f>
+        <v>24046</v>
+      </c>
+      <c r="L6" s="43">
+        <f>'Street Estimates'!K8</f>
+        <v>25104.024000000001</v>
+      </c>
+      <c r="M6" s="43">
+        <f>'Street Estimates'!L8</f>
+        <v>26208.601056000003</v>
+      </c>
+      <c r="N6" s="43">
+        <f>'Street Estimates'!M8</f>
+        <v>27361.779502464004</v>
+      </c>
+      <c r="O6" s="43">
+        <f>'Street Estimates'!N8</f>
+        <v>28565.69780057242</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="I7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" s="2">
+        <f>-'Street Estimates'!I10</f>
+        <v>-5304</v>
+      </c>
+      <c r="K7" s="43">
+        <f>-'Street Estimates'!J10</f>
+        <v>-6011.5</v>
+      </c>
+      <c r="L7" s="43">
+        <f>-'Street Estimates'!K10</f>
+        <v>-6276.0060000000003</v>
+      </c>
+      <c r="M7" s="43">
+        <f>-'Street Estimates'!L10</f>
+        <v>-6552.1502640000008</v>
+      </c>
+      <c r="N7" s="43">
+        <f>-'Street Estimates'!M10</f>
+        <v>-6840.4448756160009</v>
+      </c>
+      <c r="O7" s="43">
+        <f>-'Street Estimates'!N10</f>
+        <v>-7141.4244501431049</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="64">
+        <v>4.1599999999999998E-2</v>
+      </c>
+      <c r="I8" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" s="2">
+        <f>'Street Estimates'!I11</f>
+        <v>2862</v>
+      </c>
+      <c r="K8" s="21">
+        <f>'Street Estimates'!J11</f>
+        <v>2758</v>
+      </c>
+      <c r="L8" s="21">
+        <f>'Street Estimates'!K11</f>
+        <v>2840</v>
+      </c>
+      <c r="M8" s="21">
+        <f>'Street Estimates'!L11</f>
+        <v>3284</v>
+      </c>
+      <c r="N8" s="21">
+        <f>'Street Estimates'!M11</f>
+        <v>3526</v>
+      </c>
+      <c r="O8" s="21">
+        <f>'Street Estimates'!N11</f>
+        <v>2763</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="65">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="I9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" s="2">
+        <f>-'Street Estimates'!I12</f>
+        <v>-2566</v>
+      </c>
+      <c r="K9" s="43">
+        <f>-'Street Estimates'!J14</f>
+        <v>-3100</v>
+      </c>
+      <c r="L9" s="43">
+        <f>-'Street Estimates'!K14</f>
+        <v>-3177.4999999999995</v>
+      </c>
+      <c r="M9" s="43">
+        <f>-'Street Estimates'!L14</f>
+        <v>-3256.9374999999991</v>
+      </c>
+      <c r="N9" s="43">
+        <f>-'Street Estimates'!M14</f>
+        <v>-3338.3609374999987</v>
+      </c>
+      <c r="O9" s="43">
+        <f>-'Street Estimates'!N14</f>
+        <v>-3421.8199609374983</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="66">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="I10" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" s="2">
+        <f>'Street Estimates'!I16</f>
+        <v>-2331</v>
+      </c>
+      <c r="K10" s="48">
+        <f>'Street Estimates'!J16</f>
+        <v>-2412.585</v>
+      </c>
+      <c r="L10" s="48">
+        <f>'Street Estimates'!K16</f>
+        <v>-2470.48704</v>
+      </c>
+      <c r="M10" s="48">
+        <f>'Street Estimates'!L16</f>
+        <v>-2566.8360345599999</v>
+      </c>
+      <c r="N10" s="48">
+        <f>'Street Estimates'!M16</f>
+        <v>-2631.0069354239995</v>
+      </c>
+      <c r="O10" s="48">
+        <f>'Street Estimates'!N16</f>
+        <v>-2709.9371434867194</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="67">
+        <v>0.25</v>
+      </c>
+      <c r="I11" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="J11" s="42">
+        <f>SUM(J6:J10)</f>
+        <v>15963</v>
+      </c>
+      <c r="K11" s="62">
+        <f>SUM(K6:K10)</f>
+        <v>15279.915000000001</v>
+      </c>
+      <c r="L11" s="62">
+        <f t="shared" ref="L11:O11" si="0">SUM(L6:L10)</f>
+        <v>16020.03096</v>
+      </c>
+      <c r="M11" s="62">
+        <f t="shared" si="0"/>
+        <v>17116.677257440002</v>
+      </c>
+      <c r="N11" s="62">
+        <f t="shared" si="0"/>
+        <v>18077.966753924004</v>
+      </c>
+      <c r="O11" s="62">
+        <f t="shared" si="0"/>
+        <v>18055.516246005096</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="67">
+        <v>0.03</v>
+      </c>
+      <c r="J12" s="21"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="G13" s="65"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="65">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="64">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="65">
+        <v>-1696</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="65">
+        <v>46269</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="63">
+        <f>G12+G14*(G15-G12)</f>
+        <v>6.9600000000000009E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="68">
+        <f>G17/SUM(G16:G17)</f>
+        <v>1.0380499405469679</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" s="68">
+        <f>G16/SUM(G16:G17)</f>
+        <v>-3.8049940546967892E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="70">
+        <f>G22*G20+G21*G10*(1-G11)</f>
+        <v>3.0050297265160519E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="43">
+        <f>O6+O8</f>
+        <v>31328.69780057242</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" s="43">
+        <f>G26*G9</f>
+        <v>520056.38348950219</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8">
+        <f>O11*(1+G8)/(G23-G8)</f>
+        <v>-1628321.1917748365</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G29" s="43">
+        <f>AVERAGE(G27:G28)</f>
+        <v>-554132.40414266719</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="3">
+        <v>1</v>
+      </c>
+      <c r="H31" s="3">
+        <v>2</v>
+      </c>
+      <c r="I31" s="3">
+        <v>3</v>
+      </c>
+      <c r="J31" s="3">
+        <v>4</v>
+      </c>
+      <c r="K31" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>84</v>
+      </c>
+      <c r="G32" s="69">
+        <f>1/(1+$G$23)^K5</f>
+        <v>0.97082637872641186</v>
+      </c>
+      <c r="H32" s="69">
+        <f t="shared" ref="H32:K32" si="1">1/(1+$G$23)^L5</f>
+        <v>0.94250385763103861</v>
+      </c>
+      <c r="I32" s="69">
+        <f t="shared" si="1"/>
+        <v>0.91500760703961481</v>
+      </c>
+      <c r="J32" s="69">
+        <f t="shared" si="1"/>
+        <v>0.88831352164938904</v>
+      </c>
+      <c r="K32" s="69">
+        <f t="shared" si="1"/>
+        <v>0.86239819939658258</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>85</v>
+      </c>
+      <c r="G33" s="43">
+        <f>K11*G32</f>
+        <v>14834.144546697382</v>
+      </c>
+      <c r="H33" s="43">
+        <f t="shared" ref="H33:K33" si="2">L11*H32</f>
+        <v>15098.94097916867</v>
+      </c>
+      <c r="I33" s="43">
+        <f t="shared" si="2"/>
+        <v>15661.889897799572</v>
+      </c>
+      <c r="J33" s="43">
+        <f t="shared" si="2"/>
+        <v>16058.902311438806</v>
+      </c>
+      <c r="K33" s="43">
+        <f t="shared" si="2"/>
+        <v>15571.044699730539</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>86</v>
+      </c>
+      <c r="K34">
+        <f>K32*G29</f>
+        <v>-477882.78755993559</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="71">
+        <f>SUM(G33:K34)</f>
+        <v>-400657.86512510059</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>89</v>
+      </c>
+      <c r="F38">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>91</v>
+      </c>
+      <c r="F40">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B41" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8">
+        <v>33566</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B42" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F42" s="43">
+        <f>F35+F38-F40-F41</f>
+        <v>-432418.86512510059</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B44" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="72">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>68</v>
+      </c>
+      <c r="F45">
+        <f>F42/F44</f>
+        <v>-419.82414089815592</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B5:G5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Dow 30/Home Depot/Home Depot.xlsx
+++ b/Dow 30/Home Depot/Home Depot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shashwat Sharma\Documents\Dow Valuation\Dow 30\Home Depot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC38314-C355-422C-A00A-9FFD3A04FCD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63070F4A-B598-4099-8754-2BBF9FAE1356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="2" xr2:uid="{6B53D2EA-E1DC-4D29-B33F-5E60855FC21C}"/>
+    <workbookView xWindow="23880" yWindow="-7830" windowWidth="24240" windowHeight="18240" activeTab="2" xr2:uid="{6B53D2EA-E1DC-4D29-B33F-5E60855FC21C}"/>
   </bookViews>
   <sheets>
     <sheet name="Historical Data and Projections" sheetId="1" r:id="rId1"/>
@@ -570,15 +570,6 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
@@ -600,9 +591,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -615,6 +603,18 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -749,6 +749,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-7B62-4123-883E-5F254D38CBBF}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -766,6 +771,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-7B62-4123-883E-5F254D38CBBF}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -783,6 +793,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-7B62-4123-883E-5F254D38CBBF}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -800,6 +815,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-7B62-4123-883E-5F254D38CBBF}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -817,6 +837,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-7B62-4123-883E-5F254D38CBBF}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:numRef>
@@ -2140,20 +2165,20 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="36" t="s">
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E4" s="2"/>
@@ -3479,7 +3504,7 @@
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J1" s="2"/>
-      <c r="O1" s="44"/>
+      <c r="O1" s="41"/>
     </row>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
@@ -3489,7 +3514,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="O2" s="44"/>
+      <c r="O2" s="41"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
@@ -3497,21 +3522,21 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="36" t="s">
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="44"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="41"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="E4" s="2"/>
@@ -3530,7 +3555,7 @@
       <c r="N4" s="6">
         <v>5</v>
       </c>
-      <c r="O4" s="44"/>
+      <c r="O4" s="41"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -3550,7 +3575,7 @@
       <c r="H5" s="3">
         <v>2020</v>
       </c>
-      <c r="I5" s="40">
+      <c r="I5" s="37">
         <v>2021</v>
       </c>
       <c r="J5" s="3">
@@ -3568,7 +3593,7 @@
       <c r="N5" s="3">
         <v>2026</v>
       </c>
-      <c r="O5" s="46" t="s">
+      <c r="O5" s="43" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3588,7 +3613,7 @@
       <c r="H6" s="23">
         <v>20488</v>
       </c>
-      <c r="I6" s="50">
+      <c r="I6" s="47">
         <v>23302</v>
       </c>
       <c r="J6" s="23"/>
@@ -3596,7 +3621,7 @@
       <c r="L6" s="23"/>
       <c r="M6" s="23"/>
       <c r="N6" s="23"/>
-      <c r="O6" s="44"/>
+      <c r="O6" s="41"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -3606,27 +3631,27 @@
       <c r="F7" s="23"/>
       <c r="G7" s="23"/>
       <c r="H7" s="23"/>
-      <c r="I7" s="50"/>
+      <c r="I7" s="47"/>
       <c r="J7" s="23">
         <v>24336</v>
       </c>
-      <c r="K7" s="55">
+      <c r="K7" s="52">
         <f>J7*1.044</f>
         <v>25406.784</v>
       </c>
-      <c r="L7" s="55">
+      <c r="L7" s="52">
         <f>K7*1.05</f>
         <v>26677.123200000002</v>
       </c>
-      <c r="M7" s="55">
+      <c r="M7" s="52">
         <f t="shared" ref="M7:N7" si="0">L7*1.05</f>
         <v>28010.979360000005</v>
       </c>
-      <c r="N7" s="55">
+      <c r="N7" s="52">
         <f t="shared" si="0"/>
         <v>29411.528328000008</v>
       </c>
-      <c r="O7" s="53">
+      <c r="O7" s="50">
         <v>0.05</v>
       </c>
     </row>
@@ -3638,27 +3663,27 @@
       <c r="F8" s="23"/>
       <c r="G8" s="23"/>
       <c r="H8" s="23"/>
-      <c r="I8" s="50"/>
+      <c r="I8" s="47"/>
       <c r="J8" s="23">
         <v>24046</v>
       </c>
-      <c r="K8" s="55">
+      <c r="K8" s="52">
         <f>J8*1.044</f>
         <v>25104.024000000001</v>
       </c>
-      <c r="L8" s="55">
+      <c r="L8" s="52">
         <f t="shared" ref="L8:N8" si="1">K8*1.044</f>
         <v>26208.601056000003</v>
       </c>
-      <c r="M8" s="55">
+      <c r="M8" s="52">
         <f t="shared" si="1"/>
         <v>27361.779502464004</v>
       </c>
-      <c r="N8" s="55">
+      <c r="N8" s="52">
         <f t="shared" si="1"/>
         <v>28565.69780057242</v>
       </c>
-      <c r="O8" s="54">
+      <c r="O8" s="51">
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
@@ -3672,26 +3697,26 @@
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
-      <c r="I9" s="51"/>
+      <c r="I9" s="48"/>
       <c r="J9" s="28">
         <v>23537</v>
       </c>
       <c r="K9" s="28">
         <v>23306</v>
       </c>
-      <c r="L9" s="56">
+      <c r="L9" s="53">
         <f>1.04*K9</f>
         <v>24238.240000000002</v>
       </c>
-      <c r="M9" s="56">
+      <c r="M9" s="53">
         <f t="shared" ref="M9:N9" si="2">1.04*L9</f>
         <v>25207.769600000003</v>
       </c>
-      <c r="N9" s="56">
+      <c r="N9" s="53">
         <f t="shared" si="2"/>
         <v>26216.080384000004</v>
       </c>
-      <c r="O9" s="53">
+      <c r="O9" s="50">
         <v>0.04</v>
       </c>
     </row>
@@ -3711,33 +3736,33 @@
       <c r="H10" s="23">
         <v>4112</v>
       </c>
-      <c r="I10" s="50">
+      <c r="I10" s="47">
         <v>5304</v>
       </c>
-      <c r="J10" s="55">
+      <c r="J10" s="52">
         <f>25%*J8</f>
         <v>6011.5</v>
       </c>
-      <c r="K10" s="55">
+      <c r="K10" s="52">
         <f>25%*K8</f>
         <v>6276.0060000000003</v>
       </c>
-      <c r="L10" s="55">
+      <c r="L10" s="52">
         <f t="shared" ref="L10:N10" si="3">25%*L8</f>
         <v>6552.1502640000008</v>
       </c>
-      <c r="M10" s="55">
+      <c r="M10" s="52">
         <f t="shared" si="3"/>
         <v>6840.4448756160009</v>
       </c>
-      <c r="N10" s="55">
+      <c r="N10" s="52">
         <f t="shared" si="3"/>
         <v>7141.4244501431049</v>
       </c>
-      <c r="O10" s="58"/>
+      <c r="O10" s="55"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="38" t="s">
         <v>53</v>
       </c>
       <c r="C11" s="11"/>
@@ -3754,7 +3779,7 @@
       <c r="H11" s="35">
         <v>2519</v>
       </c>
-      <c r="I11" s="52">
+      <c r="I11" s="49">
         <v>2862</v>
       </c>
       <c r="J11" s="35">
@@ -3772,7 +3797,7 @@
       <c r="N11" s="35">
         <v>2763</v>
       </c>
-      <c r="O11" s="58"/>
+      <c r="O11" s="55"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
@@ -3790,7 +3815,7 @@
       <c r="H12" s="23">
         <v>2463</v>
       </c>
-      <c r="I12" s="50">
+      <c r="I12" s="47">
         <v>2566</v>
       </c>
       <c r="J12" s="23"/>
@@ -3798,7 +3823,7 @@
       <c r="L12" s="23"/>
       <c r="M12" s="23"/>
       <c r="N12" s="23"/>
-      <c r="O12" s="44"/>
+      <c r="O12" s="41"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
@@ -3808,27 +3833,27 @@
       <c r="F13" s="23"/>
       <c r="G13" s="23"/>
       <c r="H13" s="23"/>
-      <c r="I13" s="50"/>
+      <c r="I13" s="47"/>
       <c r="J13" s="23">
         <v>3182</v>
       </c>
-      <c r="K13" s="55">
+      <c r="K13" s="52">
         <f>J13*1.03</f>
         <v>3277.46</v>
       </c>
-      <c r="L13" s="55">
+      <c r="L13" s="52">
         <f t="shared" ref="L13:N13" si="4">K13*1.03</f>
         <v>3375.7838000000002</v>
       </c>
-      <c r="M13" s="55">
+      <c r="M13" s="52">
         <f t="shared" si="4"/>
         <v>3477.0573140000001</v>
       </c>
-      <c r="N13" s="55">
+      <c r="N13" s="52">
         <f t="shared" si="4"/>
         <v>3581.3690334200001</v>
       </c>
-      <c r="O13" s="47">
+      <c r="O13" s="44">
         <v>0.03</v>
       </c>
     </row>
@@ -3840,27 +3865,27 @@
       <c r="F14" s="23"/>
       <c r="G14" s="23"/>
       <c r="H14" s="23"/>
-      <c r="I14" s="50"/>
+      <c r="I14" s="47"/>
       <c r="J14" s="23">
         <v>3100</v>
       </c>
-      <c r="K14" s="55">
+      <c r="K14" s="52">
         <f>J14*1.025</f>
         <v>3177.4999999999995</v>
       </c>
-      <c r="L14" s="55">
-        <f t="shared" ref="L14:N15" si="5">K14*1.025</f>
+      <c r="L14" s="52">
+        <f t="shared" ref="L14:N14" si="5">K14*1.025</f>
         <v>3256.9374999999991</v>
       </c>
-      <c r="M14" s="55">
+      <c r="M14" s="52">
         <f t="shared" si="5"/>
         <v>3338.3609374999987</v>
       </c>
-      <c r="N14" s="55">
+      <c r="N14" s="52">
         <f t="shared" si="5"/>
         <v>3421.8199609374983</v>
       </c>
-      <c r="O14" s="49">
+      <c r="O14" s="46">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
@@ -3872,32 +3897,32 @@
       <c r="F15" s="23"/>
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>
-      <c r="I15" s="50"/>
+      <c r="I15" s="47"/>
       <c r="J15" s="23">
         <v>2747</v>
       </c>
-      <c r="K15" s="55">
+      <c r="K15" s="52">
         <f>J15*1.02</f>
         <v>2801.94</v>
       </c>
-      <c r="L15" s="55">
+      <c r="L15" s="52">
         <f t="shared" ref="L15:N15" si="6">K15*1.02</f>
         <v>2857.9788000000003</v>
       </c>
-      <c r="M15" s="55">
+      <c r="M15" s="52">
         <f t="shared" si="6"/>
         <v>2915.1383760000003</v>
       </c>
-      <c r="N15" s="55">
+      <c r="N15" s="52">
         <f t="shared" si="6"/>
         <v>2973.4411435200004</v>
       </c>
-      <c r="O15" s="57">
+      <c r="O15" s="54">
         <v>0.02</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="38" t="s">
         <v>55</v>
       </c>
       <c r="C16" s="11"/>
@@ -3914,30 +3939,30 @@
       <c r="H16" s="35">
         <v>340</v>
       </c>
-      <c r="I16" s="52">
+      <c r="I16" s="49">
         <v>-2331</v>
       </c>
-      <c r="J16" s="59">
+      <c r="J16" s="56">
         <f>I16*1.035</f>
         <v>-2412.585</v>
       </c>
-      <c r="K16" s="59">
+      <c r="K16" s="56">
         <f>J16*1.024</f>
         <v>-2470.48704</v>
       </c>
-      <c r="L16" s="59">
+      <c r="L16" s="56">
         <f>K16*1.039</f>
         <v>-2566.8360345599999</v>
       </c>
-      <c r="M16" s="59">
+      <c r="M16" s="56">
         <f>L16*1.025</f>
         <v>-2631.0069354239995</v>
       </c>
-      <c r="N16" s="59">
+      <c r="N16" s="56">
         <f>M16*1.03</f>
         <v>-2709.9371434867194</v>
       </c>
-      <c r="O16" s="45"/>
+      <c r="O16" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3953,7 +3978,7 @@
   <dimension ref="B2:O45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3976,14 +4001,14 @@
       <c r="D3" s="1"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="60" t="s">
+      <c r="B5" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
       <c r="I5" s="3" t="s">
         <v>70</v>
       </c>
@@ -4014,23 +4039,23 @@
         <f>'Street Estimates'!I6</f>
         <v>23302</v>
       </c>
-      <c r="K6" s="43">
+      <c r="K6" s="40">
         <f>'Street Estimates'!J8</f>
         <v>24046</v>
       </c>
-      <c r="L6" s="43">
+      <c r="L6" s="40">
         <f>'Street Estimates'!K8</f>
         <v>25104.024000000001</v>
       </c>
-      <c r="M6" s="43">
+      <c r="M6" s="40">
         <f>'Street Estimates'!L8</f>
         <v>26208.601056000003</v>
       </c>
-      <c r="N6" s="43">
+      <c r="N6" s="40">
         <f>'Street Estimates'!M8</f>
         <v>27361.779502464004</v>
       </c>
-      <c r="O6" s="43">
+      <c r="O6" s="40">
         <f>'Street Estimates'!N8</f>
         <v>28565.69780057242</v>
       </c>
@@ -4051,23 +4076,23 @@
         <f>-'Street Estimates'!I10</f>
         <v>-5304</v>
       </c>
-      <c r="K7" s="43">
+      <c r="K7" s="40">
         <f>-'Street Estimates'!J10</f>
         <v>-6011.5</v>
       </c>
-      <c r="L7" s="43">
+      <c r="L7" s="40">
         <f>-'Street Estimates'!K10</f>
         <v>-6276.0060000000003</v>
       </c>
-      <c r="M7" s="43">
+      <c r="M7" s="40">
         <f>-'Street Estimates'!L10</f>
         <v>-6552.1502640000008</v>
       </c>
-      <c r="N7" s="43">
+      <c r="N7" s="40">
         <f>-'Street Estimates'!M10</f>
         <v>-6840.4448756160009</v>
       </c>
-      <c r="O7" s="43">
+      <c r="O7" s="40">
         <f>-'Street Estimates'!N10</f>
         <v>-7141.4244501431049</v>
       </c>
@@ -4076,7 +4101,7 @@
       <c r="B8" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="64">
+      <c r="G8" s="60">
         <v>4.1599999999999998E-2</v>
       </c>
       <c r="I8" t="s">
@@ -4111,7 +4136,7 @@
       <c r="B9" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="65">
+      <c r="G9" s="61">
         <v>16.600000000000001</v>
       </c>
       <c r="I9" t="s">
@@ -4121,23 +4146,23 @@
         <f>-'Street Estimates'!I12</f>
         <v>-2566</v>
       </c>
-      <c r="K9" s="43">
+      <c r="K9" s="40">
         <f>-'Street Estimates'!J14</f>
         <v>-3100</v>
       </c>
-      <c r="L9" s="43">
+      <c r="L9" s="40">
         <f>-'Street Estimates'!K14</f>
         <v>-3177.4999999999995</v>
       </c>
-      <c r="M9" s="43">
+      <c r="M9" s="40">
         <f>-'Street Estimates'!L14</f>
         <v>-3256.9374999999991</v>
       </c>
-      <c r="N9" s="43">
+      <c r="N9" s="40">
         <f>-'Street Estimates'!M14</f>
         <v>-3338.3609374999987</v>
       </c>
-      <c r="O9" s="43">
+      <c r="O9" s="40">
         <f>-'Street Estimates'!N14</f>
         <v>-3421.8199609374983</v>
       </c>
@@ -4146,7 +4171,7 @@
       <c r="B10" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="66">
+      <c r="G10" s="62">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="I10" t="s">
@@ -4156,23 +4181,23 @@
         <f>'Street Estimates'!I16</f>
         <v>-2331</v>
       </c>
-      <c r="K10" s="48">
+      <c r="K10" s="45">
         <f>'Street Estimates'!J16</f>
         <v>-2412.585</v>
       </c>
-      <c r="L10" s="48">
+      <c r="L10" s="45">
         <f>'Street Estimates'!K16</f>
         <v>-2470.48704</v>
       </c>
-      <c r="M10" s="48">
+      <c r="M10" s="45">
         <f>'Street Estimates'!L16</f>
         <v>-2566.8360345599999</v>
       </c>
-      <c r="N10" s="48">
+      <c r="N10" s="45">
         <f>'Street Estimates'!M16</f>
         <v>-2631.0069354239995</v>
       </c>
-      <c r="O10" s="48">
+      <c r="O10" s="45">
         <f>'Street Estimates'!N16</f>
         <v>-2709.9371434867194</v>
       </c>
@@ -4181,33 +4206,33 @@
       <c r="B11" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="67">
+      <c r="G11" s="63">
         <v>0.25</v>
       </c>
-      <c r="I11" s="61" t="s">
+      <c r="I11" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="J11" s="42">
+      <c r="J11" s="39">
         <f>SUM(J6:J10)</f>
         <v>15963</v>
       </c>
-      <c r="K11" s="62">
+      <c r="K11" s="58">
         <f>SUM(K6:K10)</f>
         <v>15279.915000000001</v>
       </c>
-      <c r="L11" s="62">
+      <c r="L11" s="58">
         <f t="shared" ref="L11:O11" si="0">SUM(L6:L10)</f>
         <v>16020.03096</v>
       </c>
-      <c r="M11" s="62">
+      <c r="M11" s="58">
         <f t="shared" si="0"/>
         <v>17116.677257440002</v>
       </c>
-      <c r="N11" s="62">
+      <c r="N11" s="58">
         <f t="shared" si="0"/>
         <v>18077.966753924004</v>
       </c>
-      <c r="O11" s="62">
+      <c r="O11" s="58">
         <f t="shared" si="0"/>
         <v>18055.516246005096</v>
       </c>
@@ -4216,19 +4241,19 @@
       <c r="B12" t="s">
         <v>65</v>
       </c>
-      <c r="G12" s="67">
+      <c r="G12" s="63">
         <v>0.03</v>
       </c>
       <c r="J12" s="21"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="G13" s="65"/>
+      <c r="G13" s="61"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>66</v>
       </c>
-      <c r="G14" s="65">
+      <c r="G14" s="61">
         <v>0.99</v>
       </c>
     </row>
@@ -4236,7 +4261,7 @@
       <c r="B15" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="64">
+      <c r="G15" s="60">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -4244,15 +4269,15 @@
       <c r="B16" t="s">
         <v>68</v>
       </c>
-      <c r="G16" s="65">
-        <v>-1696</v>
+      <c r="G16" s="61">
+        <v>327624</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>69</v>
       </c>
-      <c r="G17" s="65">
+      <c r="G17" s="61">
         <v>46269</v>
       </c>
     </row>
@@ -4260,17 +4285,17 @@
       <c r="B19" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>76</v>
       </c>
-      <c r="G20" s="63">
+      <c r="G20" s="59">
         <f>G12+G14*(G15-G12)</f>
         <v>6.9600000000000009E-2</v>
       </c>
@@ -4279,18 +4304,18 @@
       <c r="B21" t="s">
         <v>77</v>
       </c>
-      <c r="G21" s="68">
+      <c r="G21" s="64">
         <f>G17/SUM(G16:G17)</f>
-        <v>1.0380499405469679</v>
+        <v>0.12374930795708933</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>78</v>
       </c>
-      <c r="G22" s="68">
+      <c r="G22" s="64">
         <f>G16/SUM(G16:G17)</f>
-        <v>-3.8049940546967892E-2</v>
+        <v>0.87625069204291062</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
@@ -4301,26 +4326,26 @@
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
-      <c r="G23" s="70">
+      <c r="G23" s="66">
         <f>G22*G20+G21*G10*(1-G11)</f>
-        <v>3.0050297265160519E-2</v>
+        <v>6.4885151366834898E-2</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="43">
+      <c r="G26" s="40">
         <f>O6+O8</f>
         <v>31328.69780057242</v>
       </c>
@@ -4329,7 +4354,7 @@
       <c r="B27" t="s">
         <v>61</v>
       </c>
-      <c r="G27" s="43">
+      <c r="G27" s="40">
         <f>G26*G9</f>
         <v>520056.38348950219</v>
       </c>
@@ -4344,26 +4369,26 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8">
         <f>O11*(1+G8)/(G23-G8)</f>
-        <v>-1628321.1917748365</v>
+        <v>807666.02825804416</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="G29" s="43">
+      <c r="G29" s="40">
         <f>AVERAGE(G27:G28)</f>
-        <v>-554132.40414266719</v>
+        <v>663861.2058737732</v>
       </c>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="39"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
       <c r="G31" s="3">
         <v>1</v>
       </c>
@@ -4384,50 +4409,50 @@
       <c r="B32" t="s">
         <v>84</v>
       </c>
-      <c r="G32" s="69">
+      <c r="G32" s="65">
         <f>1/(1+$G$23)^K5</f>
-        <v>0.97082637872641186</v>
-      </c>
-      <c r="H32" s="69">
+        <v>0.93906840443445805</v>
+      </c>
+      <c r="H32" s="65">
         <f t="shared" ref="H32:K32" si="1">1/(1+$G$23)^L5</f>
-        <v>0.94250385763103861</v>
-      </c>
-      <c r="I32" s="69">
+        <v>0.88184946820707888</v>
+      </c>
+      <c r="I32" s="65">
         <f t="shared" si="1"/>
-        <v>0.91500760703961481</v>
-      </c>
-      <c r="J32" s="69">
+        <v>0.82811697306059695</v>
+      </c>
+      <c r="J32" s="65">
         <f t="shared" si="1"/>
-        <v>0.88831352164938904</v>
-      </c>
-      <c r="K32" s="69">
+        <v>0.77765848457710784</v>
+      </c>
+      <c r="K32" s="65">
         <f t="shared" si="1"/>
-        <v>0.86239819939658258</v>
+        <v>0.73027451230674334</v>
       </c>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>85</v>
       </c>
-      <c r="G33" s="43">
+      <c r="G33" s="40">
         <f>K11*G32</f>
-        <v>14834.144546697382</v>
-      </c>
-      <c r="H33" s="43">
+        <v>14348.885398944143</v>
+      </c>
+      <c r="H33" s="40">
         <f t="shared" ref="H33:K33" si="2">L11*H32</f>
-        <v>15098.94097916867</v>
-      </c>
-      <c r="I33" s="43">
+        <v>14127.25578273694</v>
+      </c>
+      <c r="I33" s="40">
         <f t="shared" si="2"/>
-        <v>15661.889897799572</v>
-      </c>
-      <c r="J33" s="43">
+        <v>14174.610959286374</v>
+      </c>
+      <c r="J33" s="40">
         <f t="shared" si="2"/>
-        <v>16058.902311438806</v>
-      </c>
-      <c r="K33" s="43">
+        <v>14058.484230091879</v>
+      </c>
+      <c r="K33" s="40">
         <f t="shared" si="2"/>
-        <v>15571.044699730539</v>
+        <v>13185.483320997853</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
@@ -4436,29 +4461,29 @@
       </c>
       <c r="K34">
         <f>K32*G29</f>
-        <v>-477882.78755993559</v>
+        <v>484800.91835883626</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="61" t="s">
+      <c r="B35" s="57" t="s">
         <v>87</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
-      <c r="F35" s="71">
+      <c r="F35" s="67">
         <f>SUM(G33:K34)</f>
-        <v>-400657.86512510059</v>
+        <v>554695.63805089344</v>
       </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C37" s="39"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
@@ -4496,9 +4521,9 @@
       <c r="B42" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="F42" s="43">
+      <c r="F42" s="40">
         <f>F35+F38-F40-F41</f>
-        <v>-432418.86512510059</v>
+        <v>522934.63805089344</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
@@ -4508,7 +4533,7 @@
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
-      <c r="F44" s="72">
+      <c r="F44" s="68">
         <v>1030</v>
       </c>
     </row>
@@ -4516,9 +4541,9 @@
       <c r="B45" t="s">
         <v>68</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="6">
         <f>F42/F44</f>
-        <v>-419.82414089815592</v>
+        <v>507.70353208824605</v>
       </c>
     </row>
   </sheetData>
@@ -4526,5 +4551,6 @@
     <mergeCell ref="B5:G5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Dow 30/Home Depot/Home Depot.xlsx
+++ b/Dow 30/Home Depot/Home Depot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shashwat Sharma\Documents\Dow Valuation\Dow 30\Home Depot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63070F4A-B598-4099-8754-2BBF9FAE1356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D1735C-7C83-4799-9933-2E3375BCEAF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-7830" windowWidth="24240" windowHeight="18240" activeTab="2" xr2:uid="{6B53D2EA-E1DC-4D29-B33F-5E60855FC21C}"/>
   </bookViews>
@@ -326,9 +326,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\(#,##0\)_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0.00_-;\(#,##0.00\)_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -533,7 +534,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -573,13 +574,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -592,17 +590,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -615,6 +609,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2165,20 +2164,20 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="69" t="s">
+      <c r="E3" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="69" t="s">
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="70"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E4" s="2"/>
@@ -3497,14 +3496,14 @@
   <dimension ref="B1:O16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.25">
       <c r="J1" s="2"/>
-      <c r="O1" s="41"/>
+      <c r="O1" s="39"/>
     </row>
     <row r="2" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
@@ -3514,7 +3513,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="2"/>
       <c r="J2" s="2"/>
-      <c r="O2" s="41"/>
+      <c r="O2" s="39"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
@@ -3522,21 +3521,21 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="69" t="s">
+      <c r="E3" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="69" t="s">
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="64"/>
+      <c r="J3" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="70"/>
-      <c r="O3" s="41"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="39"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="E4" s="2"/>
@@ -3555,7 +3554,7 @@
       <c r="N4" s="6">
         <v>5</v>
       </c>
-      <c r="O4" s="41"/>
+      <c r="O4" s="39"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -3593,7 +3592,7 @@
       <c r="N5" s="3">
         <v>2026</v>
       </c>
-      <c r="O5" s="43" t="s">
+      <c r="O5" s="41" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3613,7 +3612,7 @@
       <c r="H6" s="23">
         <v>20488</v>
       </c>
-      <c r="I6" s="47">
+      <c r="I6" s="44">
         <v>23302</v>
       </c>
       <c r="J6" s="23"/>
@@ -3621,7 +3620,7 @@
       <c r="L6" s="23"/>
       <c r="M6" s="23"/>
       <c r="N6" s="23"/>
-      <c r="O6" s="41"/>
+      <c r="O6" s="39"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -3631,27 +3630,27 @@
       <c r="F7" s="23"/>
       <c r="G7" s="23"/>
       <c r="H7" s="23"/>
-      <c r="I7" s="47"/>
+      <c r="I7" s="44"/>
       <c r="J7" s="23">
         <v>24336</v>
       </c>
-      <c r="K7" s="52">
+      <c r="K7" s="49">
         <f>J7*1.044</f>
         <v>25406.784</v>
       </c>
-      <c r="L7" s="52">
+      <c r="L7" s="49">
         <f>K7*1.05</f>
         <v>26677.123200000002</v>
       </c>
-      <c r="M7" s="52">
+      <c r="M7" s="49">
         <f t="shared" ref="M7:N7" si="0">L7*1.05</f>
         <v>28010.979360000005</v>
       </c>
-      <c r="N7" s="52">
+      <c r="N7" s="49">
         <f t="shared" si="0"/>
         <v>29411.528328000008</v>
       </c>
-      <c r="O7" s="50">
+      <c r="O7" s="47">
         <v>0.05</v>
       </c>
     </row>
@@ -3663,27 +3662,27 @@
       <c r="F8" s="23"/>
       <c r="G8" s="23"/>
       <c r="H8" s="23"/>
-      <c r="I8" s="47"/>
+      <c r="I8" s="44"/>
       <c r="J8" s="23">
         <v>24046</v>
       </c>
-      <c r="K8" s="52">
+      <c r="K8" s="49">
         <f>J8*1.044</f>
         <v>25104.024000000001</v>
       </c>
-      <c r="L8" s="52">
+      <c r="L8" s="49">
         <f t="shared" ref="L8:N8" si="1">K8*1.044</f>
         <v>26208.601056000003</v>
       </c>
-      <c r="M8" s="52">
+      <c r="M8" s="49">
         <f t="shared" si="1"/>
         <v>27361.779502464004</v>
       </c>
-      <c r="N8" s="52">
+      <c r="N8" s="49">
         <f t="shared" si="1"/>
         <v>28565.69780057242</v>
       </c>
-      <c r="O8" s="51">
+      <c r="O8" s="48">
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
@@ -3697,26 +3696,26 @@
       <c r="F9" s="28"/>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
-      <c r="I9" s="48"/>
+      <c r="I9" s="45"/>
       <c r="J9" s="28">
         <v>23537</v>
       </c>
       <c r="K9" s="28">
         <v>23306</v>
       </c>
-      <c r="L9" s="53">
+      <c r="L9" s="50">
         <f>1.04*K9</f>
         <v>24238.240000000002</v>
       </c>
-      <c r="M9" s="53">
+      <c r="M9" s="50">
         <f t="shared" ref="M9:N9" si="2">1.04*L9</f>
         <v>25207.769600000003</v>
       </c>
-      <c r="N9" s="53">
+      <c r="N9" s="50">
         <f t="shared" si="2"/>
         <v>26216.080384000004</v>
       </c>
-      <c r="O9" s="50">
+      <c r="O9" s="47">
         <v>0.04</v>
       </c>
     </row>
@@ -3736,30 +3735,30 @@
       <c r="H10" s="23">
         <v>4112</v>
       </c>
-      <c r="I10" s="47">
+      <c r="I10" s="44">
         <v>5304</v>
       </c>
-      <c r="J10" s="52">
+      <c r="J10" s="49">
         <f>25%*J8</f>
         <v>6011.5</v>
       </c>
-      <c r="K10" s="52">
+      <c r="K10" s="49">
         <f>25%*K8</f>
         <v>6276.0060000000003</v>
       </c>
-      <c r="L10" s="52">
+      <c r="L10" s="49">
         <f t="shared" ref="L10:N10" si="3">25%*L8</f>
         <v>6552.1502640000008</v>
       </c>
-      <c r="M10" s="52">
+      <c r="M10" s="49">
         <f t="shared" si="3"/>
         <v>6840.4448756160009</v>
       </c>
-      <c r="N10" s="52">
+      <c r="N10" s="49">
         <f t="shared" si="3"/>
         <v>7141.4244501431049</v>
       </c>
-      <c r="O10" s="55"/>
+      <c r="O10" s="52"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="38" t="s">
@@ -3779,7 +3778,7 @@
       <c r="H11" s="35">
         <v>2519</v>
       </c>
-      <c r="I11" s="49">
+      <c r="I11" s="46">
         <v>2862</v>
       </c>
       <c r="J11" s="35">
@@ -3797,7 +3796,7 @@
       <c r="N11" s="35">
         <v>2763</v>
       </c>
-      <c r="O11" s="55"/>
+      <c r="O11" s="52"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
@@ -3815,7 +3814,7 @@
       <c r="H12" s="23">
         <v>2463</v>
       </c>
-      <c r="I12" s="47">
+      <c r="I12" s="44">
         <v>2566</v>
       </c>
       <c r="J12" s="23"/>
@@ -3823,7 +3822,7 @@
       <c r="L12" s="23"/>
       <c r="M12" s="23"/>
       <c r="N12" s="23"/>
-      <c r="O12" s="41"/>
+      <c r="O12" s="39"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
@@ -3833,27 +3832,27 @@
       <c r="F13" s="23"/>
       <c r="G13" s="23"/>
       <c r="H13" s="23"/>
-      <c r="I13" s="47"/>
+      <c r="I13" s="44"/>
       <c r="J13" s="23">
         <v>3182</v>
       </c>
-      <c r="K13" s="52">
+      <c r="K13" s="49">
         <f>J13*1.03</f>
         <v>3277.46</v>
       </c>
-      <c r="L13" s="52">
+      <c r="L13" s="49">
         <f t="shared" ref="L13:N13" si="4">K13*1.03</f>
         <v>3375.7838000000002</v>
       </c>
-      <c r="M13" s="52">
+      <c r="M13" s="49">
         <f t="shared" si="4"/>
         <v>3477.0573140000001</v>
       </c>
-      <c r="N13" s="52">
+      <c r="N13" s="49">
         <f t="shared" si="4"/>
         <v>3581.3690334200001</v>
       </c>
-      <c r="O13" s="44">
+      <c r="O13" s="42">
         <v>0.03</v>
       </c>
     </row>
@@ -3865,27 +3864,27 @@
       <c r="F14" s="23"/>
       <c r="G14" s="23"/>
       <c r="H14" s="23"/>
-      <c r="I14" s="47"/>
+      <c r="I14" s="44"/>
       <c r="J14" s="23">
         <v>3100</v>
       </c>
-      <c r="K14" s="52">
+      <c r="K14" s="49">
         <f>J14*1.025</f>
         <v>3177.4999999999995</v>
       </c>
-      <c r="L14" s="52">
+      <c r="L14" s="49">
         <f t="shared" ref="L14:N14" si="5">K14*1.025</f>
         <v>3256.9374999999991</v>
       </c>
-      <c r="M14" s="52">
+      <c r="M14" s="49">
         <f t="shared" si="5"/>
         <v>3338.3609374999987</v>
       </c>
-      <c r="N14" s="52">
+      <c r="N14" s="49">
         <f t="shared" si="5"/>
         <v>3421.8199609374983</v>
       </c>
-      <c r="O14" s="46">
+      <c r="O14" s="43">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
@@ -3897,27 +3896,27 @@
       <c r="F15" s="23"/>
       <c r="G15" s="23"/>
       <c r="H15" s="23"/>
-      <c r="I15" s="47"/>
+      <c r="I15" s="44"/>
       <c r="J15" s="23">
         <v>2747</v>
       </c>
-      <c r="K15" s="52">
+      <c r="K15" s="49">
         <f>J15*1.02</f>
         <v>2801.94</v>
       </c>
-      <c r="L15" s="52">
+      <c r="L15" s="49">
         <f t="shared" ref="L15:N15" si="6">K15*1.02</f>
         <v>2857.9788000000003</v>
       </c>
-      <c r="M15" s="52">
+      <c r="M15" s="49">
         <f t="shared" si="6"/>
         <v>2915.1383760000003</v>
       </c>
-      <c r="N15" s="52">
+      <c r="N15" s="49">
         <f t="shared" si="6"/>
         <v>2973.4411435200004</v>
       </c>
-      <c r="O15" s="54">
+      <c r="O15" s="51">
         <v>0.02</v>
       </c>
     </row>
@@ -3939,30 +3938,30 @@
       <c r="H16" s="35">
         <v>340</v>
       </c>
-      <c r="I16" s="49">
+      <c r="I16" s="46">
         <v>-2331</v>
       </c>
-      <c r="J16" s="56">
+      <c r="J16" s="53">
         <f>I16*1.035</f>
         <v>-2412.585</v>
       </c>
-      <c r="K16" s="56">
+      <c r="K16" s="53">
         <f>J16*1.024</f>
         <v>-2470.48704</v>
       </c>
-      <c r="L16" s="56">
+      <c r="L16" s="53">
         <f>K16*1.039</f>
         <v>-2566.8360345599999</v>
       </c>
-      <c r="M16" s="56">
+      <c r="M16" s="53">
         <f>L16*1.025</f>
         <v>-2631.0069354239995</v>
       </c>
-      <c r="N16" s="56">
+      <c r="N16" s="53">
         <f>M16*1.03</f>
         <v>-2709.9371434867194</v>
       </c>
-      <c r="O16" s="42"/>
+      <c r="O16" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3977,8 +3976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4227E2D-680B-4228-894A-47C660061E79}">
   <dimension ref="B2:O45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4001,14 +4000,14 @@
       <c r="D3" s="1"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="65" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
       <c r="I5" s="3" t="s">
         <v>70</v>
       </c>
@@ -4035,27 +4034,27 @@
       <c r="I6" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="15">
         <f>'Street Estimates'!I6</f>
         <v>23302</v>
       </c>
-      <c r="K6" s="40">
+      <c r="K6" s="14">
         <f>'Street Estimates'!J8</f>
         <v>24046</v>
       </c>
-      <c r="L6" s="40">
+      <c r="L6" s="14">
         <f>'Street Estimates'!K8</f>
         <v>25104.024000000001</v>
       </c>
-      <c r="M6" s="40">
+      <c r="M6" s="14">
         <f>'Street Estimates'!L8</f>
         <v>26208.601056000003</v>
       </c>
-      <c r="N6" s="40">
+      <c r="N6" s="14">
         <f>'Street Estimates'!M8</f>
         <v>27361.779502464004</v>
       </c>
-      <c r="O6" s="40">
+      <c r="O6" s="14">
         <f>'Street Estimates'!N8</f>
         <v>28565.69780057242</v>
       </c>
@@ -4072,27 +4071,27 @@
       <c r="I7" t="s">
         <v>72</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="15">
         <f>-'Street Estimates'!I10</f>
         <v>-5304</v>
       </c>
-      <c r="K7" s="40">
+      <c r="K7" s="14">
         <f>-'Street Estimates'!J10</f>
         <v>-6011.5</v>
       </c>
-      <c r="L7" s="40">
+      <c r="L7" s="14">
         <f>-'Street Estimates'!K10</f>
         <v>-6276.0060000000003</v>
       </c>
-      <c r="M7" s="40">
+      <c r="M7" s="14">
         <f>-'Street Estimates'!L10</f>
         <v>-6552.1502640000008</v>
       </c>
-      <c r="N7" s="40">
+      <c r="N7" s="14">
         <f>-'Street Estimates'!M10</f>
         <v>-6840.4448756160009</v>
       </c>
-      <c r="O7" s="40">
+      <c r="O7" s="14">
         <f>-'Street Estimates'!N10</f>
         <v>-7141.4244501431049</v>
       </c>
@@ -4101,33 +4100,33 @@
       <c r="B8" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="60">
+      <c r="G8" s="56">
         <v>4.1599999999999998E-2</v>
       </c>
       <c r="I8" t="s">
         <v>71</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="15">
         <f>'Street Estimates'!I11</f>
         <v>2862</v>
       </c>
-      <c r="K8" s="21">
+      <c r="K8" s="66">
         <f>'Street Estimates'!J11</f>
         <v>2758</v>
       </c>
-      <c r="L8" s="21">
+      <c r="L8" s="66">
         <f>'Street Estimates'!K11</f>
         <v>2840</v>
       </c>
-      <c r="M8" s="21">
+      <c r="M8" s="66">
         <f>'Street Estimates'!L11</f>
         <v>3284</v>
       </c>
-      <c r="N8" s="21">
+      <c r="N8" s="66">
         <f>'Street Estimates'!M11</f>
         <v>3526</v>
       </c>
-      <c r="O8" s="21">
+      <c r="O8" s="66">
         <f>'Street Estimates'!N11</f>
         <v>2763</v>
       </c>
@@ -4136,33 +4135,33 @@
       <c r="B9" t="s">
         <v>61</v>
       </c>
-      <c r="G9" s="61">
+      <c r="G9" s="57">
         <v>16.600000000000001</v>
       </c>
       <c r="I9" t="s">
         <v>56</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="15">
         <f>-'Street Estimates'!I12</f>
         <v>-2566</v>
       </c>
-      <c r="K9" s="40">
+      <c r="K9" s="14">
         <f>-'Street Estimates'!J14</f>
         <v>-3100</v>
       </c>
-      <c r="L9" s="40">
+      <c r="L9" s="14">
         <f>-'Street Estimates'!K14</f>
         <v>-3177.4999999999995</v>
       </c>
-      <c r="M9" s="40">
+      <c r="M9" s="14">
         <f>-'Street Estimates'!L14</f>
         <v>-3256.9374999999991</v>
       </c>
-      <c r="N9" s="40">
+      <c r="N9" s="14">
         <f>-'Street Estimates'!M14</f>
         <v>-3338.3609374999987</v>
       </c>
-      <c r="O9" s="40">
+      <c r="O9" s="14">
         <f>-'Street Estimates'!N14</f>
         <v>-3421.8199609374983</v>
       </c>
@@ -4171,33 +4170,33 @@
       <c r="B10" t="s">
         <v>62</v>
       </c>
-      <c r="G10" s="62">
+      <c r="G10" s="58">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="I10" t="s">
         <v>73</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="15">
         <f>'Street Estimates'!I16</f>
         <v>-2331</v>
       </c>
-      <c r="K10" s="45">
+      <c r="K10" s="17">
         <f>'Street Estimates'!J16</f>
         <v>-2412.585</v>
       </c>
-      <c r="L10" s="45">
+      <c r="L10" s="17">
         <f>'Street Estimates'!K16</f>
         <v>-2470.48704</v>
       </c>
-      <c r="M10" s="45">
+      <c r="M10" s="17">
         <f>'Street Estimates'!L16</f>
         <v>-2566.8360345599999</v>
       </c>
-      <c r="N10" s="45">
+      <c r="N10" s="17">
         <f>'Street Estimates'!M16</f>
         <v>-2631.0069354239995</v>
       </c>
-      <c r="O10" s="45">
+      <c r="O10" s="17">
         <f>'Street Estimates'!N16</f>
         <v>-2709.9371434867194</v>
       </c>
@@ -4206,33 +4205,33 @@
       <c r="B11" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="63">
+      <c r="G11" s="59">
         <v>0.25</v>
       </c>
-      <c r="I11" s="57" t="s">
+      <c r="I11" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="J11" s="39">
+      <c r="J11" s="13">
         <f>SUM(J6:J10)</f>
         <v>15963</v>
       </c>
-      <c r="K11" s="58">
+      <c r="K11" s="66">
         <f>SUM(K6:K10)</f>
         <v>15279.915000000001</v>
       </c>
-      <c r="L11" s="58">
+      <c r="L11" s="66">
         <f t="shared" ref="L11:O11" si="0">SUM(L6:L10)</f>
         <v>16020.03096</v>
       </c>
-      <c r="M11" s="58">
+      <c r="M11" s="66">
         <f t="shared" si="0"/>
         <v>17116.677257440002</v>
       </c>
-      <c r="N11" s="58">
+      <c r="N11" s="66">
         <f t="shared" si="0"/>
         <v>18077.966753924004</v>
       </c>
-      <c r="O11" s="58">
+      <c r="O11" s="66">
         <f t="shared" si="0"/>
         <v>18055.516246005096</v>
       </c>
@@ -4241,19 +4240,19 @@
       <c r="B12" t="s">
         <v>65</v>
       </c>
-      <c r="G12" s="63">
+      <c r="G12" s="59">
         <v>0.03</v>
       </c>
       <c r="J12" s="21"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="G13" s="61"/>
+      <c r="G13" s="57"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>66</v>
       </c>
-      <c r="G14" s="61">
+      <c r="G14" s="57">
         <v>0.99</v>
       </c>
     </row>
@@ -4261,7 +4260,7 @@
       <c r="B15" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="60">
+      <c r="G15" s="56">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
@@ -4269,7 +4268,7 @@
       <c r="B16" t="s">
         <v>68</v>
       </c>
-      <c r="G16" s="61">
+      <c r="G16" s="57">
         <v>327624</v>
       </c>
     </row>
@@ -4277,7 +4276,7 @@
       <c r="B17" t="s">
         <v>69</v>
       </c>
-      <c r="G17" s="61">
+      <c r="G17" s="57">
         <v>46269</v>
       </c>
     </row>
@@ -4295,7 +4294,7 @@
       <c r="B20" t="s">
         <v>76</v>
       </c>
-      <c r="G20" s="59">
+      <c r="G20" s="55">
         <f>G12+G14*(G15-G12)</f>
         <v>6.9600000000000009E-2</v>
       </c>
@@ -4304,7 +4303,7 @@
       <c r="B21" t="s">
         <v>77</v>
       </c>
-      <c r="G21" s="64">
+      <c r="G21" s="60">
         <f>G17/SUM(G16:G17)</f>
         <v>0.12374930795708933</v>
       </c>
@@ -4313,7 +4312,7 @@
       <c r="B22" t="s">
         <v>78</v>
       </c>
-      <c r="G22" s="64">
+      <c r="G22" s="60">
         <f>G16/SUM(G16:G17)</f>
         <v>0.87625069204291062</v>
       </c>
@@ -4326,7 +4325,7 @@
       <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
-      <c r="G23" s="66">
+      <c r="G23" s="61">
         <f>G22*G20+G21*G10*(1-G11)</f>
         <v>6.4885151366834898E-2</v>
       </c>
@@ -4345,19 +4344,29 @@
       <c r="B26" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="40">
+      <c r="F26" s="14"/>
+      <c r="G26" s="14">
         <f>O6+O8</f>
         <v>31328.69780057242</v>
       </c>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>61</v>
       </c>
-      <c r="G27" s="40">
+      <c r="F27" s="14"/>
+      <c r="G27" s="14">
         <f>G26*G9</f>
         <v>520056.38348950219</v>
       </c>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
@@ -4366,20 +4375,37 @@
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8">
+      <c r="F28" s="17"/>
+      <c r="G28" s="17">
         <f>O11*(1+G8)/(G23-G8)</f>
         <v>807666.02825804416</v>
       </c>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="G29" s="40">
+      <c r="F29" s="14"/>
+      <c r="G29" s="14">
         <f>AVERAGE(G27:G28)</f>
         <v>663861.2058737732</v>
       </c>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
@@ -4388,20 +4414,20 @@
       <c r="C31" s="36"/>
       <c r="D31" s="36"/>
       <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="3">
+      <c r="F31" s="67"/>
+      <c r="G31" s="68">
         <v>1</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="68">
         <v>2</v>
       </c>
-      <c r="I31" s="3">
+      <c r="I31" s="68">
         <v>3</v>
       </c>
-      <c r="J31" s="3">
+      <c r="J31" s="68">
         <v>4</v>
       </c>
-      <c r="K31" s="3">
+      <c r="K31" s="68">
         <v>5</v>
       </c>
     </row>
@@ -4409,23 +4435,24 @@
       <c r="B32" t="s">
         <v>84</v>
       </c>
-      <c r="G32" s="65">
+      <c r="F32" s="14"/>
+      <c r="G32" s="70">
         <f>1/(1+$G$23)^K5</f>
         <v>0.93906840443445805</v>
       </c>
-      <c r="H32" s="65">
+      <c r="H32" s="70">
         <f t="shared" ref="H32:K32" si="1">1/(1+$G$23)^L5</f>
         <v>0.88184946820707888</v>
       </c>
-      <c r="I32" s="65">
+      <c r="I32" s="70">
         <f t="shared" si="1"/>
         <v>0.82811697306059695</v>
       </c>
-      <c r="J32" s="65">
+      <c r="J32" s="70">
         <f t="shared" si="1"/>
         <v>0.77765848457710784</v>
       </c>
-      <c r="K32" s="65">
+      <c r="K32" s="70">
         <f t="shared" si="1"/>
         <v>0.73027451230674334</v>
       </c>
@@ -4434,23 +4461,24 @@
       <c r="B33" t="s">
         <v>85</v>
       </c>
-      <c r="G33" s="40">
+      <c r="F33" s="14"/>
+      <c r="G33" s="14">
         <f>K11*G32</f>
         <v>14348.885398944143</v>
       </c>
-      <c r="H33" s="40">
+      <c r="H33" s="14">
         <f t="shared" ref="H33:K33" si="2">L11*H32</f>
         <v>14127.25578273694</v>
       </c>
-      <c r="I33" s="40">
+      <c r="I33" s="14">
         <f t="shared" si="2"/>
         <v>14174.610959286374</v>
       </c>
-      <c r="J33" s="40">
+      <c r="J33" s="14">
         <f t="shared" si="2"/>
         <v>14058.484230091879</v>
       </c>
-      <c r="K33" s="40">
+      <c r="K33" s="14">
         <f t="shared" si="2"/>
         <v>13185.483320997853</v>
       </c>
@@ -4459,22 +4487,40 @@
       <c r="B34" t="s">
         <v>86</v>
       </c>
-      <c r="K34">
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14">
         <f>K32*G29</f>
         <v>484800.91835883626</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="57" t="s">
+      <c r="B35" s="54" t="s">
         <v>87</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
-      <c r="F35" s="67">
+      <c r="F35" s="18">
         <f>SUM(G33:K34)</f>
         <v>554695.63805089344</v>
       </c>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
@@ -4483,28 +4529,49 @@
       <c r="C37" s="36"/>
       <c r="D37" s="36"/>
       <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
+      <c r="F37" s="67"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>89</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="23">
         <v>2840</v>
       </c>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>90</v>
       </c>
+      <c r="F39" s="23"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>91</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="23">
         <v>1035</v>
       </c>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
@@ -4513,18 +4580,36 @@
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
-      <c r="F41" s="8">
+      <c r="F41" s="28">
         <v>33566</v>
       </c>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="F42" s="40">
+      <c r="F42" s="14">
         <f>F35+F38-F40-F41</f>
         <v>522934.63805089344</v>
       </c>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
@@ -4533,18 +4618,28 @@
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
-      <c r="F44" s="68">
+      <c r="F44" s="17">
         <v>1030</v>
       </c>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>68</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45" s="69">
         <f>F42/F44</f>
         <v>507.70353208824605</v>
       </c>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Dow 30/Home Depot/Home Depot.xlsx
+++ b/Dow 30/Home Depot/Home Depot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shashwat Sharma\Documents\Dow Valuation\Dow 30\Home Depot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D1735C-7C83-4799-9933-2E3375BCEAF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1BA0A43-F24B-419F-9226-591D778E1E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-7830" windowWidth="24240" windowHeight="18240" activeTab="2" xr2:uid="{6B53D2EA-E1DC-4D29-B33F-5E60855FC21C}"/>
+    <workbookView minimized="1" xWindow="32730" yWindow="-4410" windowWidth="18000" windowHeight="9810" activeTab="2" xr2:uid="{6B53D2EA-E1DC-4D29-B33F-5E60855FC21C}"/>
   </bookViews>
   <sheets>
     <sheet name="Historical Data and Projections" sheetId="1" r:id="rId1"/>
@@ -329,7 +329,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\(#,##0\)_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0.00_-;\(#,##0.00\)_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00_-;\(#,##0.00\)_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -597,6 +597,11 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -609,11 +614,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2164,20 +2164,20 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="62" t="s">
+      <c r="E3" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="62" t="s">
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="E4" s="2"/>
@@ -3521,20 +3521,20 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="62" t="s">
+      <c r="E3" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="62" t="s">
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
       <c r="O3" s="39"/>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
@@ -3976,8 +3976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4227E2D-680B-4228-894A-47C660061E79}">
   <dimension ref="B2:O45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="M40" sqref="M40"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:O45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4000,14 +4000,14 @@
       <c r="D3" s="1"/>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
       <c r="I5" s="3" t="s">
         <v>70</v>
       </c>
@@ -4110,23 +4110,23 @@
         <f>'Street Estimates'!I11</f>
         <v>2862</v>
       </c>
-      <c r="K8" s="66">
+      <c r="K8" s="62">
         <f>'Street Estimates'!J11</f>
         <v>2758</v>
       </c>
-      <c r="L8" s="66">
+      <c r="L8" s="62">
         <f>'Street Estimates'!K11</f>
         <v>2840</v>
       </c>
-      <c r="M8" s="66">
+      <c r="M8" s="62">
         <f>'Street Estimates'!L11</f>
         <v>3284</v>
       </c>
-      <c r="N8" s="66">
+      <c r="N8" s="62">
         <f>'Street Estimates'!M11</f>
         <v>3526</v>
       </c>
-      <c r="O8" s="66">
+      <c r="O8" s="62">
         <f>'Street Estimates'!N11</f>
         <v>2763</v>
       </c>
@@ -4215,23 +4215,23 @@
         <f>SUM(J6:J10)</f>
         <v>15963</v>
       </c>
-      <c r="K11" s="66">
+      <c r="K11" s="62">
         <f>SUM(K6:K10)</f>
         <v>15279.915000000001</v>
       </c>
-      <c r="L11" s="66">
+      <c r="L11" s="62">
         <f t="shared" ref="L11:O11" si="0">SUM(L6:L10)</f>
         <v>16020.03096</v>
       </c>
-      <c r="M11" s="66">
+      <c r="M11" s="62">
         <f t="shared" si="0"/>
         <v>17116.677257440002</v>
       </c>
-      <c r="N11" s="66">
+      <c r="N11" s="62">
         <f t="shared" si="0"/>
         <v>18077.966753924004</v>
       </c>
-      <c r="O11" s="66">
+      <c r="O11" s="62">
         <f t="shared" si="0"/>
         <v>18055.516246005096</v>
       </c>
@@ -4414,20 +4414,20 @@
       <c r="C31" s="36"/>
       <c r="D31" s="36"/>
       <c r="E31" s="36"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="68">
+      <c r="F31" s="63"/>
+      <c r="G31" s="64">
         <v>1</v>
       </c>
-      <c r="H31" s="68">
+      <c r="H31" s="64">
         <v>2</v>
       </c>
-      <c r="I31" s="68">
+      <c r="I31" s="64">
         <v>3</v>
       </c>
-      <c r="J31" s="68">
+      <c r="J31" s="64">
         <v>4</v>
       </c>
-      <c r="K31" s="68">
+      <c r="K31" s="64">
         <v>5</v>
       </c>
     </row>
@@ -4436,23 +4436,23 @@
         <v>84</v>
       </c>
       <c r="F32" s="14"/>
-      <c r="G32" s="70">
+      <c r="G32" s="66">
         <f>1/(1+$G$23)^K5</f>
         <v>0.93906840443445805</v>
       </c>
-      <c r="H32" s="70">
+      <c r="H32" s="66">
         <f t="shared" ref="H32:K32" si="1">1/(1+$G$23)^L5</f>
         <v>0.88184946820707888</v>
       </c>
-      <c r="I32" s="70">
+      <c r="I32" s="66">
         <f t="shared" si="1"/>
         <v>0.82811697306059695</v>
       </c>
-      <c r="J32" s="70">
+      <c r="J32" s="66">
         <f t="shared" si="1"/>
         <v>0.77765848457710784</v>
       </c>
-      <c r="K32" s="70">
+      <c r="K32" s="66">
         <f t="shared" si="1"/>
         <v>0.73027451230674334</v>
       </c>
@@ -4529,7 +4529,7 @@
       <c r="C37" s="36"/>
       <c r="D37" s="36"/>
       <c r="E37" s="36"/>
-      <c r="F37" s="67"/>
+      <c r="F37" s="63"/>
       <c r="G37" s="14"/>
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
@@ -4631,7 +4631,7 @@
       <c r="B45" t="s">
         <v>68</v>
       </c>
-      <c r="F45" s="69">
+      <c r="F45" s="65">
         <f>F42/F44</f>
         <v>507.70353208824605</v>
       </c>
